--- a/aliyun_user/QuickBI用户分组.xlsx
+++ b/aliyun_user/QuickBI用户分组.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381">
   <si>
     <t>业务部门</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>账号</t>
+  </si>
+  <si>
+    <t>邮件发送状态</t>
   </si>
   <si>
     <t>是否需要quick bi access</t>
@@ -79,6 +82,9 @@
     <t>abc.xyz@wework.cn</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -175,6 +181,9 @@
     <t>yiyun.wu@wework.cn</t>
   </si>
   <si>
+    <t>邮件发送不出去</t>
+  </si>
+  <si>
     <t>Management Office</t>
   </si>
   <si>
@@ -268,6 +277,9 @@
     <t>yi-chien.lin@wework.cn</t>
   </si>
   <si>
+    <t>邮件发送失败</t>
+  </si>
+  <si>
     <t>Xingwei Fu</t>
   </si>
   <si>
@@ -547,16 +559,7 @@
     <t>Joey Zhang</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>joey.zhang@wework.cn</t>
-    </r>
+    <t>joey.zhang@wework.cn</t>
   </si>
   <si>
     <t>Hazel Xia</t>
@@ -616,16 +619,7 @@
     <t>Adrian Tai</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>adriana.tai@wework.cn</t>
-    </r>
+    <t>adriana.tai@wework.cn</t>
   </si>
   <si>
     <t>Leila Deng</t>
@@ -745,16 +739,7 @@
     <t>Carrie Zheng</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>carrie.zheng@wework.cn</t>
-    </r>
+    <t>carrie.zheng@wework.cn</t>
   </si>
   <si>
     <t>Eva Zhang</t>
@@ -1003,26 +988,7 @@
     <t>Claire Wang</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>claire.wang@</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wework.cn</t>
-    </r>
+    <t>claire.wang@wework.cn</t>
   </si>
   <si>
     <t>Fiona Wei</t>
@@ -1233,7 +1199,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1270,6 +1236,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
@@ -1296,6 +1269,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1265BE"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1311,6 +1291,13 @@
       <sz val="10.25"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1792,152 +1779,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1956,31 +1943,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2311,26 +2305,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W268"/>
+  <dimension ref="A1:X268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="11.2"/>
   <cols>
     <col min="1" max="1" width="14.9134615384615" customWidth="1"/>
     <col min="2" max="2" width="12.0865384615385" customWidth="1"/>
-    <col min="3" max="3" width="23.5865384615385" customWidth="1"/>
-    <col min="4" max="4" width="14.4134615384615" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="8.58653846153846" customWidth="1"/>
-    <col min="7" max="7" width="10" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="23" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="35.0769230769231" customWidth="1"/>
+    <col min="4" max="4" width="23.5865384615385" customWidth="1"/>
+    <col min="5" max="5" width="14.4134615384615" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="8.58653846153846" customWidth="1"/>
+    <col min="8" max="8" width="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="24" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="97" spans="1:23">
+    <row r="1" ht="97" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2340,22 +2335,24 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2370,2470 +2367,2958 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-    </row>
-    <row r="2" ht="12.4" spans="1:23">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" ht="12.4" spans="1:24">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-    </row>
-    <row r="3" ht="14" spans="1:5">
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" ht="14" spans="1:6">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" ht="14" spans="1:5">
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" ht="14" spans="1:6">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" ht="14" spans="1:5">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" ht="14" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" ht="14" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" ht="14" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" ht="14" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" ht="14" spans="1:6">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" ht="14" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" ht="14" spans="1:6">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" ht="14" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" ht="14" spans="1:6">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" ht="14" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" ht="14" spans="1:6">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" ht="14" spans="1:6">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" ht="14" spans="1:5">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
       <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" ht="14" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" ht="14" spans="1:6">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" ht="14" spans="1:6">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" ht="14" spans="1:5">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" ht="14" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" ht="14" spans="1:6">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" ht="14" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" ht="14" spans="1:6">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" ht="14" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" ht="14" spans="1:6">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" ht="14" spans="1:6">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" ht="14" spans="1:5">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
       <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" ht="14" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" ht="14" spans="1:6">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" ht="14" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" ht="14" spans="1:6">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" ht="14" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" ht="14" spans="1:6">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" ht="14" spans="1:5">
+        <v>57</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" ht="14" spans="1:6">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" ht="14" spans="1:5">
+        <v>59</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" ht="14" spans="1:6">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" ht="14" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" ht="14" spans="1:6">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" ht="14" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" ht="14" spans="1:6">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" ht="14" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" ht="14" spans="1:6">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" ht="14" spans="1:5">
+        <v>67</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" ht="14" spans="1:6">
       <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" ht="14" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" ht="14" spans="1:6">
       <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" ht="14" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" ht="14" spans="1:6">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" ht="14" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" ht="14" spans="1:6">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" ht="14" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" ht="14" spans="1:6">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" ht="14" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" ht="14" spans="1:6">
       <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" ht="28" spans="1:5">
-      <c r="A32" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" ht="28" spans="1:5">
-      <c r="A33" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" ht="28" spans="1:6">
+      <c r="A32" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" ht="28" spans="1:5">
-      <c r="A34" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="12" t="s">
+      <c r="B32" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" ht="28" spans="1:5">
-      <c r="A35" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="12" t="s">
+      <c r="D32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" ht="28" spans="1:6">
+      <c r="A33" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" ht="28" spans="1:5">
-      <c r="A36" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="12" t="s">
+      <c r="D33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" ht="28" spans="1:6">
+      <c r="A34" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" ht="14" spans="1:5">
+      <c r="D34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" ht="28" spans="1:6">
+      <c r="A35" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" ht="28" spans="1:6">
+      <c r="A36" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" ht="14" spans="1:6">
       <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" ht="14" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" ht="14" spans="1:6">
       <c r="A38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" ht="14" spans="1:5">
+      <c r="B38" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" ht="14" spans="1:6">
       <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" ht="14" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" ht="14" spans="1:6">
       <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" ht="14" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" ht="14" spans="1:6">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" ht="14" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" ht="14" spans="1:6">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" ht="14" spans="1:5">
+        <v>105</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" ht="14" spans="1:6">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" ht="14" spans="1:6">
+      <c r="A44" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" ht="14" spans="1:5">
-      <c r="A44" t="s">
-        <v>100</v>
-      </c>
       <c r="B44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" ht="14" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" ht="14" spans="1:6">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" ht="14" spans="1:5">
+        <v>111</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" ht="14" spans="1:6">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" ht="14" spans="1:5">
+        <v>113</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" ht="14" spans="1:6">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" ht="14" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" ht="14" spans="1:6">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" ht="14" spans="1:5">
+        <v>117</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" ht="14" spans="1:6">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" ht="14" spans="1:5">
+        <v>119</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" ht="14" spans="1:6">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" ht="14" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" ht="14" spans="1:6">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" ht="14" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" ht="14" spans="1:6">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" ht="14" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" ht="14" spans="1:6">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" ht="14" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" ht="14" spans="1:6">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" ht="14" spans="1:5">
+        <v>129</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" ht="14" spans="1:6">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" ht="14" spans="1:5">
+        <v>131</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" ht="14" spans="1:6">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" ht="14" spans="1:5">
+        <v>133</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" ht="14" spans="1:6">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" ht="14" spans="1:5">
+        <v>135</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" ht="14" spans="1:6">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" ht="14.45" customHeight="1" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" ht="14.45" customHeight="1" spans="1:6">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" ht="14" spans="1:6">
+      <c r="A60" t="s">
         <v>137</v>
       </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" ht="14" spans="1:5">
-      <c r="A60" t="s">
-        <v>133</v>
-      </c>
       <c r="B60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" ht="14" spans="1:5">
+        <v>142</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" ht="14" spans="1:6">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" ht="14" spans="1:5">
+        <v>144</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" ht="14" spans="1:6">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" ht="14" spans="1:5">
+        <v>146</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" ht="14" spans="1:6">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" ht="14" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" ht="14" spans="1:6">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" ht="14" spans="1:5">
+        <v>150</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" ht="14" spans="1:6">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" ht="14" spans="1:5">
+        <v>152</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" ht="14" spans="1:6">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" ht="14" spans="1:5">
+        <v>154</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" ht="14" spans="1:6">
       <c r="A67" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" ht="14" spans="1:5">
+        <v>137</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" ht="14" spans="1:6">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" ht="14" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" ht="14" spans="1:6">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" ht="14" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" ht="14" spans="1:6">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" ht="14" spans="1:5">
+        <v>162</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" ht="14" spans="1:6">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" ht="14" spans="1:5">
+        <v>164</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" ht="14" spans="1:6">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" ht="14" spans="1:5">
+        <v>166</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" ht="14" spans="1:6">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" ht="15" spans="1:5">
+        <v>168</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" ht="14.4" spans="1:6">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" t="s">
-        <v>167</v>
-      </c>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" ht="14" spans="1:5">
+        <v>170</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" ht="14" spans="1:6">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" ht="14" spans="1:5">
+        <v>172</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" ht="14" spans="1:6">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" ht="14" spans="1:5">
+        <v>174</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" ht="14" spans="1:6">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" ht="14" spans="1:5">
+        <v>176</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" ht="14" spans="1:6">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" ht="14" spans="1:5">
+        <v>178</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" ht="14" spans="1:6">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" ht="14" spans="1:5">
+        <v>180</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" ht="14" spans="1:6">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" ht="14" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" ht="14" spans="1:6">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" ht="14" spans="1:5">
+        <v>184</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" ht="14" spans="1:6">
       <c r="A82" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" ht="14" spans="1:5">
+        <v>186</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" ht="14" spans="1:6">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" ht="15" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" ht="14.4" spans="1:6">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" ht="14" spans="1:5">
+        <v>190</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" ht="14" spans="1:6">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" ht="14" spans="1:5">
+        <v>192</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" ht="14" spans="1:6">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" ht="14" spans="1:5">
+        <v>194</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" ht="14" spans="1:6">
       <c r="A87" t="s">
-        <v>133</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" ht="14" spans="1:5">
+        <v>137</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" ht="14" spans="1:6">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" ht="14" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" ht="14" spans="1:6">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" ht="14" spans="1:5">
+        <v>200</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" ht="14" spans="1:6">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" ht="14" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" ht="14" spans="1:6">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" ht="14" spans="1:5">
+        <v>204</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" ht="14" spans="1:6">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" ht="14" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" ht="14" spans="1:6">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" ht="14" spans="1:5">
+        <v>208</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" ht="14" spans="1:6">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" ht="14" spans="1:5">
+        <v>210</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" ht="14" spans="1:6">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" ht="14" spans="1:5">
+        <v>212</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" ht="14" spans="1:6">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" ht="14" spans="1:5">
+        <v>214</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" ht="14" spans="1:6">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" ht="14" spans="1:5">
+        <v>216</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" ht="14" spans="1:6">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" ht="14" spans="1:5">
+        <v>218</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" ht="14" spans="1:6">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" ht="14" spans="1:5">
+        <v>220</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" ht="14" spans="1:6">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" ht="14" spans="1:5">
+        <v>222</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" ht="14" spans="1:6">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" ht="14" spans="1:5">
+        <v>224</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" ht="14" spans="1:6">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" ht="14" spans="1:5">
+        <v>226</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" ht="14" spans="1:6">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="s">
-        <v>224</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" ht="15" spans="1:5">
+        <v>228</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" ht="14.4" spans="1:6">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B104" t="s">
-        <v>226</v>
-      </c>
-      <c r="C104" t="s">
-        <v>227</v>
-      </c>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" ht="14" spans="1:5">
+        <v>230</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" ht="14" spans="1:6">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>228</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" ht="14" spans="1:5">
+        <v>232</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" ht="14" spans="1:6">
       <c r="A106" t="s">
-        <v>230</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" ht="14" spans="1:5">
+        <v>234</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" ht="14" spans="1:6">
       <c r="A107" t="s">
-        <v>230</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C107" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" ht="14" spans="1:5">
+      <c r="B107" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" ht="14" spans="1:6">
       <c r="A108" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" ht="14" spans="1:5">
+        <v>239</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" ht="14" spans="1:6">
       <c r="A109" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B109" t="s">
-        <v>237</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" ht="14" spans="1:5">
+        <v>241</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" ht="14" spans="1:6">
       <c r="A110" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" ht="14" spans="1:5">
+        <v>243</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" ht="14" spans="1:6">
       <c r="A111" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>241</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" ht="14" spans="1:5">
+        <v>245</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" ht="14" spans="1:6">
       <c r="A112" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B112" t="s">
-        <v>243</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" ht="14" spans="1:5">
+        <v>247</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" ht="14" spans="1:6">
       <c r="A113" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B113" t="s">
-        <v>245</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" ht="14" spans="1:5">
+        <v>249</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" ht="14" spans="1:6">
       <c r="A114" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B114" t="s">
-        <v>247</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" ht="14" spans="1:5">
+        <v>251</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" ht="14" spans="1:6">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" ht="14" spans="1:5">
+        <v>253</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" ht="14" spans="1:6">
       <c r="A116" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" ht="14" spans="1:5">
+        <v>255</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" ht="14" spans="1:6">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>253</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" ht="14" spans="1:5">
+        <v>257</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" ht="14" spans="1:6">
       <c r="A118" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" ht="14" spans="1:5">
+        <v>259</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" ht="14" spans="1:6">
       <c r="A119" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B119" t="s">
-        <v>257</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" ht="14" spans="1:5">
+        <v>261</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" ht="14" spans="1:6">
       <c r="A120" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B120" t="s">
-        <v>260</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" ht="14" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" ht="14" spans="1:6">
       <c r="A121" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B121" t="s">
-        <v>263</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E121" s="1"/>
-    </row>
-    <row r="122" ht="14" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" ht="14" spans="1:6">
       <c r="A122" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B122" t="s">
-        <v>265</v>
-      </c>
-      <c r="C122" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" ht="14" spans="1:6">
+      <c r="A123" t="s">
         <v>266</v>
       </c>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" ht="14" spans="1:5">
-      <c r="A123" t="s">
-        <v>262</v>
-      </c>
       <c r="B123" t="s">
-        <v>267</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E123" s="1"/>
-    </row>
-    <row r="124" ht="14" spans="1:5">
+        <v>271</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" ht="14" spans="1:6">
       <c r="A124" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B124" t="s">
-        <v>269</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" ht="14" spans="1:5">
+        <v>273</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" ht="14" spans="1:6">
       <c r="A125" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B125" t="s">
-        <v>271</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E125" s="1"/>
-    </row>
-    <row r="126" ht="14" spans="1:5">
+        <v>275</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" ht="14" spans="1:6">
       <c r="A126" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B126" t="s">
-        <v>273</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" ht="14" spans="1:5">
+        <v>277</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" ht="14" spans="1:6">
       <c r="A127" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B127" t="s">
-        <v>275</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E127" s="1"/>
-    </row>
-    <row r="128" ht="14" spans="1:5">
+        <v>279</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" ht="14" spans="1:6">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B128" t="s">
-        <v>277</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" ht="14" spans="1:5">
+        <v>281</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" ht="14" spans="1:6">
       <c r="A129" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>279</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" ht="14" spans="1:5">
+        <v>283</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" ht="14" spans="1:6">
       <c r="A130" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B130" t="s">
-        <v>281</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" ht="14" spans="1:5">
+        <v>285</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" ht="14" spans="1:6">
       <c r="A131" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B131" t="s">
-        <v>283</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" ht="14" spans="1:5">
+        <v>287</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" ht="14" spans="1:6">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B132" t="s">
-        <v>285</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E132" s="1"/>
-    </row>
-    <row r="133" ht="14" spans="1:5">
+        <v>289</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" ht="14" spans="1:6">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B133" t="s">
-        <v>287</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" ht="14" spans="1:5">
+        <v>291</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" ht="14" spans="1:6">
       <c r="A134" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B134" t="s">
-        <v>289</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E134" s="1"/>
-    </row>
-    <row r="135" ht="14" spans="1:5">
+        <v>293</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" ht="14" spans="1:6">
       <c r="A135" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B135" t="s">
-        <v>291</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E135" s="1"/>
-    </row>
-    <row r="136" ht="14" spans="1:5">
+        <v>295</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" ht="14" spans="1:6">
       <c r="A136" t="s">
-        <v>293</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" ht="14" spans="1:5">
+        <v>297</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" ht="14" spans="1:6">
       <c r="A137" t="s">
-        <v>296</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" ht="14" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" ht="14" spans="1:6">
       <c r="A138" t="s">
-        <v>296</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C138" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E138" s="1"/>
-    </row>
-    <row r="139" ht="14" spans="1:5">
+      <c r="B138" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" ht="14" spans="1:6">
       <c r="A139" t="s">
-        <v>296</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" ht="14" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" ht="14" spans="1:6">
       <c r="A140" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B140" t="s">
-        <v>303</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" ht="14" spans="1:5">
+        <v>307</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" ht="14" spans="1:6">
       <c r="A141" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B141" t="s">
-        <v>305</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E141" s="1"/>
-    </row>
-    <row r="142" ht="14" spans="1:5">
+        <v>309</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" ht="14" spans="1:6">
       <c r="A142" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B142" t="s">
-        <v>307</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" ht="15" spans="1:5">
+        <v>311</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" ht="14.4" spans="1:6">
       <c r="A143" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B143" t="s">
-        <v>309</v>
-      </c>
-      <c r="C143" t="s">
-        <v>310</v>
-      </c>
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" ht="14" spans="1:5">
+        <v>313</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" ht="14" spans="1:6">
       <c r="A144" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B144" t="s">
-        <v>311</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" ht="14" spans="1:5">
+        <v>315</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" ht="14" spans="1:6">
       <c r="A145" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B145" t="s">
-        <v>313</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E145" s="1"/>
-    </row>
-    <row r="146" ht="12.4" spans="1:5">
+        <v>317</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" ht="12.4" spans="1:6">
       <c r="A146" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B146" t="s">
-        <v>315</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="E146" s="1"/>
-    </row>
-    <row r="147" ht="14" spans="1:5">
+        <v>319</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" ht="14" spans="1:6">
       <c r="A147" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B147" t="s">
-        <v>317</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" ht="14" spans="1:5">
+        <v>321</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" ht="14" spans="1:6">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B148" t="s">
-        <v>319</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="E148" s="1"/>
-    </row>
-    <row r="149" ht="14" spans="1:5">
+        <v>323</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" ht="14" spans="1:6">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B149" t="s">
-        <v>321</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" ht="14" spans="1:5">
+        <v>325</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" ht="14" spans="1:6">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B150" t="s">
-        <v>323</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E150" s="1"/>
-    </row>
-    <row r="151" ht="14" spans="1:5">
+        <v>327</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" ht="14" spans="1:6">
       <c r="A151" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B151" t="s">
-        <v>325</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E151" s="1"/>
-    </row>
-    <row r="152" ht="14" spans="1:5">
+        <v>329</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" ht="14" spans="1:6">
       <c r="A152" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B152" t="s">
-        <v>327</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E152" s="1"/>
-    </row>
-    <row r="153" ht="14" spans="1:5">
+        <v>331</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" ht="14" spans="1:6">
       <c r="A153" t="s">
-        <v>296</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="E153" s="1"/>
-    </row>
-    <row r="154" ht="14" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" ht="14" spans="1:6">
       <c r="A154" t="s">
-        <v>331</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E154" s="1"/>
-    </row>
-    <row r="155" ht="14" spans="1:5">
+        <v>335</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" ht="14" spans="1:6">
       <c r="A155" t="s">
-        <v>331</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C155" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E155" s="1"/>
-    </row>
-    <row r="156" ht="14" spans="1:5">
+      <c r="B155" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" ht="14" spans="1:6">
       <c r="A156" t="s">
-        <v>331</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="E156" s="1"/>
-    </row>
-    <row r="157" ht="14" spans="1:5">
+        <v>335</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" ht="14" spans="1:6">
       <c r="A157" t="s">
-        <v>331</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="E157" s="1"/>
-    </row>
-    <row r="158" ht="14" spans="1:5">
+        <v>335</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" ht="14" spans="1:6">
       <c r="A158" t="s">
-        <v>331</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E158" s="1"/>
-    </row>
-    <row r="159" ht="14" spans="1:5">
+        <v>335</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" ht="14" spans="1:6">
       <c r="A159" t="s">
-        <v>331</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="E159" s="1"/>
-    </row>
-    <row r="160" ht="14" spans="1:5">
+        <v>335</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" ht="14" spans="1:6">
       <c r="A160" t="s">
-        <v>331</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="E160" s="1"/>
-    </row>
-    <row r="161" ht="14" spans="1:5">
+        <v>335</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" ht="14" spans="1:6">
       <c r="A161" t="s">
-        <v>331</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="E161" s="1"/>
-    </row>
-    <row r="162" ht="14" spans="1:5">
+        <v>335</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" ht="14" spans="1:6">
       <c r="A162" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B162" t="s">
-        <v>348</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E162" s="1"/>
-    </row>
-    <row r="163" ht="14" spans="1:5">
+        <v>352</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" ht="14" spans="1:6">
       <c r="A163" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B163" t="s">
-        <v>351</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E163" s="1"/>
-    </row>
-    <row r="164" ht="14" spans="3:5">
-      <c r="C164" s="16"/>
-      <c r="E164" s="1"/>
-    </row>
-    <row r="165" ht="12.4" spans="5:5">
-      <c r="E165" s="1"/>
-    </row>
-    <row r="166" ht="12.4" spans="5:5">
-      <c r="E166" s="1"/>
-    </row>
-    <row r="167" ht="12.4" spans="5:5">
-      <c r="E167" s="1"/>
-    </row>
-    <row r="168" ht="12.4" spans="5:5">
-      <c r="E168" s="1"/>
-    </row>
-    <row r="169" ht="12.4" spans="5:5">
-      <c r="E169" s="1"/>
-    </row>
-    <row r="170" ht="12.4" spans="5:5">
-      <c r="E170" s="1"/>
-    </row>
-    <row r="171" ht="12.4" spans="5:5">
-      <c r="E171" s="1"/>
-    </row>
-    <row r="172" ht="12.4" spans="5:5">
-      <c r="E172" s="1"/>
-    </row>
-    <row r="173" ht="12.4" spans="5:5">
-      <c r="E173" s="1"/>
-    </row>
-    <row r="174" ht="12.4" spans="5:5">
-      <c r="E174" s="1"/>
-    </row>
-    <row r="175" ht="12.4" spans="5:5">
-      <c r="E175" s="1"/>
-    </row>
-    <row r="176" ht="12.4" spans="5:5">
-      <c r="E176" s="1"/>
-    </row>
-    <row r="177" ht="12.4" spans="5:5">
-      <c r="E177" s="1"/>
-    </row>
-    <row r="178" ht="12.4" spans="5:5">
-      <c r="E178" s="1"/>
-    </row>
-    <row r="179" ht="12.4" spans="5:5">
-      <c r="E179" s="1"/>
-    </row>
-    <row r="180" ht="12.4" spans="5:5">
-      <c r="E180" s="1"/>
-    </row>
-    <row r="181" ht="12.4" spans="5:5">
-      <c r="E181" s="1"/>
-    </row>
-    <row r="182" ht="12.4" spans="5:5">
-      <c r="E182" s="1"/>
-    </row>
-    <row r="183" ht="12.4" spans="5:5">
-      <c r="E183" s="1"/>
-    </row>
-    <row r="184" ht="12.4" spans="5:5">
-      <c r="E184" s="1"/>
-    </row>
-    <row r="185" ht="12.4" spans="5:5">
-      <c r="E185" s="1"/>
-    </row>
-    <row r="186" ht="12.4" spans="5:5">
-      <c r="E186" s="1"/>
-    </row>
-    <row r="187" ht="12.4" spans="5:5">
-      <c r="E187" s="1"/>
-    </row>
-    <row r="188" ht="12.4" spans="5:5">
-      <c r="E188" s="1"/>
-    </row>
-    <row r="189" ht="12.4" spans="5:5">
-      <c r="E189" s="1"/>
-    </row>
-    <row r="190" ht="12.4" spans="5:5">
-      <c r="E190" s="1"/>
-    </row>
-    <row r="191" ht="12.4" spans="5:5">
-      <c r="E191" s="1"/>
-    </row>
-    <row r="192" ht="12.4" spans="5:5">
-      <c r="E192" s="1"/>
-    </row>
-    <row r="193" ht="12.4" spans="5:5">
-      <c r="E193" s="1"/>
-    </row>
-    <row r="194" ht="12.4" spans="5:5">
-      <c r="E194" s="1"/>
-    </row>
-    <row r="195" ht="12.4" spans="5:5">
-      <c r="E195" s="1"/>
-    </row>
-    <row r="196" ht="12.4" spans="5:5">
-      <c r="E196" s="1"/>
-    </row>
-    <row r="197" ht="12.4" spans="5:5">
-      <c r="E197" s="1"/>
-    </row>
-    <row r="198" ht="12.4" spans="5:5">
-      <c r="E198" s="1"/>
-    </row>
-    <row r="199" ht="12.4" spans="5:5">
-      <c r="E199" s="1"/>
-    </row>
-    <row r="200" ht="12.4" spans="5:5">
-      <c r="E200" s="1"/>
-    </row>
-    <row r="201" ht="12.4" spans="5:5">
-      <c r="E201" s="1"/>
-    </row>
-    <row r="202" ht="12.4" spans="5:5">
-      <c r="E202" s="1"/>
-    </row>
-    <row r="203" ht="12.4" spans="5:5">
-      <c r="E203" s="1"/>
-    </row>
-    <row r="204" ht="12.4" spans="5:5">
-      <c r="E204" s="1"/>
-    </row>
-    <row r="205" ht="12.4" spans="5:5">
-      <c r="E205" s="1"/>
-    </row>
-    <row r="206" ht="12.4" spans="5:5">
-      <c r="E206" s="1"/>
-    </row>
-    <row r="207" ht="12.4" spans="5:5">
-      <c r="E207" s="1"/>
-    </row>
-    <row r="208" ht="12.4" spans="5:5">
-      <c r="E208" s="1"/>
-    </row>
-    <row r="209" ht="12.4" spans="5:5">
-      <c r="E209" s="1"/>
-    </row>
-    <row r="210" ht="12.4" spans="5:5">
-      <c r="E210" s="1"/>
-    </row>
-    <row r="211" ht="12.4" spans="5:5">
-      <c r="E211" s="1"/>
-    </row>
-    <row r="212" ht="12.4" spans="5:5">
-      <c r="E212" s="1"/>
-    </row>
-    <row r="213" ht="12.4" spans="5:5">
-      <c r="E213" s="1"/>
-    </row>
-    <row r="214" ht="12.4" spans="5:5">
-      <c r="E214" s="1"/>
-    </row>
-    <row r="215" ht="12.4" spans="5:5">
-      <c r="E215" s="1"/>
-    </row>
-    <row r="216" ht="12.4" spans="5:5">
-      <c r="E216" s="1"/>
-    </row>
-    <row r="217" ht="12.4" spans="5:5">
-      <c r="E217" s="1"/>
-    </row>
-    <row r="218" ht="12.4" spans="5:5">
-      <c r="E218" s="1"/>
-    </row>
-    <row r="219" ht="12.4" spans="5:5">
-      <c r="E219" s="1"/>
-    </row>
-    <row r="220" ht="12.4" spans="5:5">
-      <c r="E220" s="1"/>
-    </row>
-    <row r="221" ht="12.4" spans="5:5">
-      <c r="E221" s="1"/>
-    </row>
-    <row r="222" ht="12.4" spans="5:5">
-      <c r="E222" s="1"/>
-    </row>
-    <row r="223" ht="12.4" spans="5:5">
-      <c r="E223" s="1"/>
-    </row>
-    <row r="224" ht="12.4" spans="5:5">
-      <c r="E224" s="1"/>
-    </row>
-    <row r="225" ht="12.4" spans="5:5">
-      <c r="E225" s="1"/>
-    </row>
-    <row r="226" ht="12.4" spans="5:5">
-      <c r="E226" s="1"/>
-    </row>
-    <row r="227" ht="12.4" spans="5:5">
-      <c r="E227" s="1"/>
-    </row>
-    <row r="228" ht="12.4" spans="5:5">
-      <c r="E228" s="1"/>
-    </row>
-    <row r="229" ht="12.4" spans="5:5">
-      <c r="E229" s="1"/>
-    </row>
-    <row r="230" ht="12.4" spans="5:5">
-      <c r="E230" s="1"/>
-    </row>
-    <row r="231" ht="12.4" spans="5:5">
-      <c r="E231" s="1"/>
-    </row>
-    <row r="232" ht="12.4" spans="5:5">
-      <c r="E232" s="1"/>
-    </row>
-    <row r="233" ht="12.4" spans="5:5">
-      <c r="E233" s="1"/>
-    </row>
-    <row r="234" ht="12.4" spans="5:5">
-      <c r="E234" s="1"/>
-    </row>
-    <row r="235" ht="12.4" spans="5:5">
-      <c r="E235" s="1"/>
-    </row>
-    <row r="236" ht="12.4" spans="5:5">
-      <c r="E236" s="1"/>
-    </row>
-    <row r="237" ht="12.4" spans="5:5">
-      <c r="E237" s="1"/>
-    </row>
-    <row r="238" ht="12.4" spans="5:5">
-      <c r="E238" s="1"/>
-    </row>
-    <row r="239" ht="12.4" spans="5:5">
-      <c r="E239" s="1"/>
-    </row>
-    <row r="240" ht="12.4" spans="5:5">
-      <c r="E240" s="1"/>
-    </row>
-    <row r="241" ht="12.4" spans="5:5">
-      <c r="E241" s="1"/>
-    </row>
-    <row r="242" ht="12.4" spans="5:5">
-      <c r="E242" s="1"/>
-    </row>
-    <row r="243" ht="12.4" spans="5:5">
-      <c r="E243" s="1"/>
-    </row>
-    <row r="244" ht="12.4" spans="5:5">
-      <c r="E244" s="1"/>
-    </row>
-    <row r="245" ht="12.4" spans="5:5">
-      <c r="E245" s="1"/>
-    </row>
-    <row r="246" ht="12.4" spans="5:5">
-      <c r="E246" s="1"/>
-    </row>
-    <row r="247" ht="12.4" spans="5:5">
-      <c r="E247" s="1"/>
-    </row>
-    <row r="248" ht="12.4" spans="5:5">
-      <c r="E248" s="1"/>
-    </row>
-    <row r="249" ht="12.4" spans="5:5">
-      <c r="E249" s="1"/>
-    </row>
-    <row r="250" ht="12.4" spans="5:5">
-      <c r="E250" s="1"/>
-    </row>
-    <row r="251" ht="12.4" spans="5:5">
-      <c r="E251" s="1"/>
-    </row>
-    <row r="252" ht="12.4" spans="5:5">
-      <c r="E252" s="1"/>
-    </row>
-    <row r="253" ht="12.4" spans="5:5">
-      <c r="E253" s="1"/>
-    </row>
-    <row r="254" ht="12.4" spans="5:5">
-      <c r="E254" s="1"/>
-    </row>
-    <row r="255" ht="12.4" spans="5:5">
-      <c r="E255" s="1"/>
-    </row>
-    <row r="256" ht="12.4" spans="5:5">
-      <c r="E256" s="1"/>
-    </row>
-    <row r="257" ht="12.4" spans="5:5">
-      <c r="E257" s="1"/>
-    </row>
-    <row r="258" ht="12.4" spans="5:5">
-      <c r="E258" s="1"/>
-    </row>
-    <row r="259" ht="12.4" spans="5:5">
-      <c r="E259" s="1"/>
-    </row>
-    <row r="260" ht="12.4" spans="5:5">
-      <c r="E260" s="1"/>
-    </row>
-    <row r="261" ht="12.4" spans="5:5">
-      <c r="E261" s="1"/>
-    </row>
-    <row r="262" ht="12.4" spans="5:5">
-      <c r="E262" s="1"/>
-    </row>
-    <row r="263" ht="12.4" spans="5:5">
-      <c r="E263" s="1"/>
-    </row>
-    <row r="264" ht="12.4" spans="5:5">
-      <c r="E264" s="1"/>
-    </row>
-    <row r="265" ht="12.4" spans="5:5">
-      <c r="E265" s="1"/>
-    </row>
-    <row r="266" ht="12.4" spans="5:5">
-      <c r="E266" s="1"/>
-    </row>
-    <row r="267" ht="12.4" spans="5:5">
-      <c r="E267" s="1"/>
-    </row>
-    <row r="268" ht="12.4" spans="5:5">
-      <c r="E268" s="1"/>
+        <v>355</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" ht="14" spans="3:6">
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" ht="12.4" spans="6:6">
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" ht="12.4" spans="6:6">
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" ht="12.4" spans="6:6">
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" ht="12.4" spans="6:6">
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" ht="12.4" spans="6:6">
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" ht="12.4" spans="6:6">
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" ht="12.4" spans="6:6">
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" ht="12.4" spans="6:6">
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" ht="12.4" spans="6:6">
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" ht="12.4" spans="6:6">
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" ht="12.4" spans="6:6">
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" ht="12.4" spans="6:6">
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" ht="12.4" spans="6:6">
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" ht="12.4" spans="6:6">
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" ht="12.4" spans="6:6">
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" ht="12.4" spans="6:6">
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" ht="12.4" spans="6:6">
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" ht="12.4" spans="6:6">
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" ht="12.4" spans="6:6">
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" ht="12.4" spans="6:6">
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" ht="12.4" spans="6:6">
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" ht="12.4" spans="6:6">
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" ht="12.4" spans="6:6">
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188" ht="12.4" spans="6:6">
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" ht="12.4" spans="6:6">
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" ht="12.4" spans="6:6">
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" ht="12.4" spans="6:6">
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" ht="12.4" spans="6:6">
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" ht="12.4" spans="6:6">
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" ht="12.4" spans="6:6">
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" ht="12.4" spans="6:6">
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" ht="12.4" spans="6:6">
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197" ht="12.4" spans="6:6">
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" ht="12.4" spans="6:6">
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" ht="12.4" spans="6:6">
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" ht="12.4" spans="6:6">
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" ht="12.4" spans="6:6">
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" ht="12.4" spans="6:6">
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" ht="12.4" spans="6:6">
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204" ht="12.4" spans="6:6">
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" ht="12.4" spans="6:6">
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" ht="12.4" spans="6:6">
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" ht="12.4" spans="6:6">
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" ht="12.4" spans="6:6">
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" ht="12.4" spans="6:6">
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" ht="12.4" spans="6:6">
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" ht="12.4" spans="6:6">
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212" ht="12.4" spans="6:6">
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" ht="12.4" spans="6:6">
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214" ht="12.4" spans="6:6">
+      <c r="F214" s="1"/>
+    </row>
+    <row r="215" ht="12.4" spans="6:6">
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" ht="12.4" spans="6:6">
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" ht="12.4" spans="6:6">
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" ht="12.4" spans="6:6">
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" ht="12.4" spans="6:6">
+      <c r="F219" s="1"/>
+    </row>
+    <row r="220" ht="12.4" spans="6:6">
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" ht="12.4" spans="6:6">
+      <c r="F221" s="1"/>
+    </row>
+    <row r="222" ht="12.4" spans="6:6">
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223" ht="12.4" spans="6:6">
+      <c r="F223" s="1"/>
+    </row>
+    <row r="224" ht="12.4" spans="6:6">
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225" ht="12.4" spans="6:6">
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226" ht="12.4" spans="6:6">
+      <c r="F226" s="1"/>
+    </row>
+    <row r="227" ht="12.4" spans="6:6">
+      <c r="F227" s="1"/>
+    </row>
+    <row r="228" ht="12.4" spans="6:6">
+      <c r="F228" s="1"/>
+    </row>
+    <row r="229" ht="12.4" spans="6:6">
+      <c r="F229" s="1"/>
+    </row>
+    <row r="230" ht="12.4" spans="6:6">
+      <c r="F230" s="1"/>
+    </row>
+    <row r="231" ht="12.4" spans="6:6">
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232" ht="12.4" spans="6:6">
+      <c r="F232" s="1"/>
+    </row>
+    <row r="233" ht="12.4" spans="6:6">
+      <c r="F233" s="1"/>
+    </row>
+    <row r="234" ht="12.4" spans="6:6">
+      <c r="F234" s="1"/>
+    </row>
+    <row r="235" ht="12.4" spans="6:6">
+      <c r="F235" s="1"/>
+    </row>
+    <row r="236" ht="12.4" spans="6:6">
+      <c r="F236" s="1"/>
+    </row>
+    <row r="237" ht="12.4" spans="6:6">
+      <c r="F237" s="1"/>
+    </row>
+    <row r="238" ht="12.4" spans="6:6">
+      <c r="F238" s="1"/>
+    </row>
+    <row r="239" ht="12.4" spans="6:6">
+      <c r="F239" s="1"/>
+    </row>
+    <row r="240" ht="12.4" spans="6:6">
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241" ht="12.4" spans="6:6">
+      <c r="F241" s="1"/>
+    </row>
+    <row r="242" ht="12.4" spans="6:6">
+      <c r="F242" s="1"/>
+    </row>
+    <row r="243" ht="12.4" spans="6:6">
+      <c r="F243" s="1"/>
+    </row>
+    <row r="244" ht="12.4" spans="6:6">
+      <c r="F244" s="1"/>
+    </row>
+    <row r="245" ht="12.4" spans="6:6">
+      <c r="F245" s="1"/>
+    </row>
+    <row r="246" ht="12.4" spans="6:6">
+      <c r="F246" s="1"/>
+    </row>
+    <row r="247" ht="12.4" spans="6:6">
+      <c r="F247" s="1"/>
+    </row>
+    <row r="248" ht="12.4" spans="6:6">
+      <c r="F248" s="1"/>
+    </row>
+    <row r="249" ht="12.4" spans="6:6">
+      <c r="F249" s="1"/>
+    </row>
+    <row r="250" ht="12.4" spans="6:6">
+      <c r="F250" s="1"/>
+    </row>
+    <row r="251" ht="12.4" spans="6:6">
+      <c r="F251" s="1"/>
+    </row>
+    <row r="252" ht="12.4" spans="6:6">
+      <c r="F252" s="1"/>
+    </row>
+    <row r="253" ht="12.4" spans="6:6">
+      <c r="F253" s="1"/>
+    </row>
+    <row r="254" ht="12.4" spans="6:6">
+      <c r="F254" s="1"/>
+    </row>
+    <row r="255" ht="12.4" spans="6:6">
+      <c r="F255" s="1"/>
+    </row>
+    <row r="256" ht="12.4" spans="6:6">
+      <c r="F256" s="1"/>
+    </row>
+    <row r="257" ht="12.4" spans="6:6">
+      <c r="F257" s="1"/>
+    </row>
+    <row r="258" ht="12.4" spans="6:6">
+      <c r="F258" s="1"/>
+    </row>
+    <row r="259" ht="12.4" spans="6:6">
+      <c r="F259" s="1"/>
+    </row>
+    <row r="260" ht="12.4" spans="6:6">
+      <c r="F260" s="1"/>
+    </row>
+    <row r="261" ht="12.4" spans="6:6">
+      <c r="F261" s="1"/>
+    </row>
+    <row r="262" ht="12.4" spans="6:6">
+      <c r="F262" s="1"/>
+    </row>
+    <row r="263" ht="12.4" spans="6:6">
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" ht="12.4" spans="6:6">
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" ht="12.4" spans="6:6">
+      <c r="F265" s="1"/>
+    </row>
+    <row r="266" ht="12.4" spans="6:6">
+      <c r="F266" s="1"/>
+    </row>
+    <row r="267" ht="12.4" spans="6:6">
+      <c r="F267" s="1"/>
+    </row>
+    <row r="268" ht="12.4" spans="6:6">
+      <c r="F268" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C$1:C$1048576">
+  <conditionalFormatting sqref="C$1:D$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1" display="是否需要访问核心指标(@关键指标汇总)"/>
-    <hyperlink ref="C86" r:id="rId2" display="candice.cao@wework.cn"/>
-    <hyperlink ref="C11" r:id="rId3" display="joan.qu@wework.cn"/>
-    <hyperlink ref="C53" r:id="rId4" display="mandy.li@wework.cn"/>
-    <hyperlink ref="C140" r:id="rId5" display="rachel.ren@wework.cn"/>
-    <hyperlink ref="C58" r:id="rId6" display="sammi.wang@wework.cn"/>
-    <hyperlink ref="C80" r:id="rId7" display="lena.xia@wework.cn"/>
-    <hyperlink ref="C158" r:id="rId8" display="louis.shang@wework.cn"/>
-    <hyperlink ref="C101" r:id="rId9" display="grace.xu@wework.cn"/>
-    <hyperlink ref="C63" r:id="rId10" display="lily.ding@wework.cn"/>
-    <hyperlink ref="C141" r:id="rId11" display="xiaoyu.he@wework.cn"/>
-    <hyperlink ref="C55" r:id="rId12" display="catherine.wang@wework.cn"/>
+    <hyperlink ref="G1" r:id="rId1" display="是否需要访问核心指标(@关键指标汇总)"/>
+    <hyperlink ref="C86" r:id="rId2" display="candice.cao@wework.cn" tooltip="mailto:candice.cao@wework.cn"/>
+    <hyperlink ref="C11" r:id="rId3" display="joan.qu@wework.cn" tooltip="mailto:joan.qu@wework.cn"/>
+    <hyperlink ref="C53" r:id="rId4" display="mandy.li@wework.cn" tooltip="mailto:mandy.li@wework.cn"/>
+    <hyperlink ref="C140" r:id="rId5" display="rachel.ren@wework.cn" tooltip="mailto:rachel.ren@wework.cn"/>
+    <hyperlink ref="C58" r:id="rId6" display="sammi.wang@wework.cn" tooltip="mailto:sammi.wang@wework.cn"/>
+    <hyperlink ref="C80" r:id="rId7" display="lena.xia@wework.cn" tooltip="mailto:lena.xia@wework.cn"/>
+    <hyperlink ref="C158" r:id="rId8" display="louis.shang@wework.cn" tooltip="mailto:louis.shang@wework.cn"/>
+    <hyperlink ref="C101" r:id="rId9" display="grace.xu@wework.cn" tooltip="mailto:grace.xu@wework.cn"/>
+    <hyperlink ref="C63" r:id="rId10" display="lily.ding@wework.cn" tooltip="mailto:lily.ding@wework.cn"/>
+    <hyperlink ref="C141" r:id="rId11" display="xiaoyu.he@wework.cn" tooltip="mailto:xiaoyu.he@wework.cn"/>
+    <hyperlink ref="C55" r:id="rId12" display="catherine.wang@wework.cn" tooltip="mailto:catherine.wang@wework.cn"/>
     <hyperlink ref="C2" r:id="rId13" display="abc.xyz@wework.cn"/>
-    <hyperlink ref="C149" r:id="rId14" display="hui.chen@wework.cn"/>
-    <hyperlink ref="C99" r:id="rId15" display="xenia.gu@wework.cn"/>
-    <hyperlink ref="C129" r:id="rId16" display="Charis.Yim@wework.hk"/>
-    <hyperlink ref="C24" r:id="rId17" display="dee.lu@wework.cn"/>
-    <hyperlink ref="C131" r:id="rId18" display="pinki.fung@wework.hk"/>
-    <hyperlink ref="C32" r:id="rId19" display="dianguo.zhu@wework.cn"/>
-    <hyperlink ref="C51" r:id="rId20" display="iris.sun@wework.cn"/>
-    <hyperlink ref="C155" r:id="rId21" display="mia.zhang@wework.cn"/>
-    <hyperlink ref="C126" r:id="rId22" display="Venus.law@wework.hk"/>
-    <hyperlink ref="C36" r:id="rId23" display="suzie.liu@wework.cn"/>
-    <hyperlink ref="C143" r:id="rId24" display="claire.wang@wework.cn"/>
-    <hyperlink ref="C60" r:id="rId25" display="aolun.pan@wework.cn"/>
-    <hyperlink ref="C120" r:id="rId26" display="elena.wang@wework.cn"/>
-    <hyperlink ref="C75" r:id="rId27" display="hazel.xia@wework.cn"/>
-    <hyperlink ref="C163" r:id="rId28" display="lingqi.chen@wework.cn"/>
-    <hyperlink ref="C123" r:id="rId29" display="victoria.hu@wework.hk"/>
-    <hyperlink ref="C133" r:id="rId30" display="ada.ho@wework.hk"/>
-    <hyperlink ref="C85" r:id="rId31" display="leila.deng@wework.cn"/>
-    <hyperlink ref="C16" r:id="rId32" display="shenlun.wang@wework.cn"/>
-    <hyperlink ref="C110" r:id="rId33" display="helena.pu@wework.cn"/>
-    <hyperlink ref="C161" r:id="rId34" display="sunny.hung@wework.cn"/>
-    <hyperlink ref="C139" r:id="rId35" display="luna.lu@wework.cn"/>
-    <hyperlink ref="C33" r:id="rId36" display="jessie.gao@wework.cn"/>
-    <hyperlink ref="C121" r:id="rId37" display="nancy.yip@wework.hk"/>
-    <hyperlink ref="C76" r:id="rId38" display="jan.tong@wework.cn"/>
-    <hyperlink ref="C96" r:id="rId39" display="elsie.liu@wework.cn"/>
-    <hyperlink ref="C3" r:id="rId40" display="conan.quan@wework.cn"/>
-    <hyperlink ref="C34" r:id="rId41" display="samuel.wu@wework.cn"/>
-    <hyperlink ref="C73" r:id="rId42" display="dingman.liu@wework.cn"/>
-    <hyperlink ref="C112" r:id="rId43" display="vanessa.wang@wework.cn"/>
-    <hyperlink ref="C147" r:id="rId44" display="anna.yang@wework.cn"/>
-    <hyperlink ref="C65" r:id="rId45" display="karen.chen@wework.cn"/>
-    <hyperlink ref="C15" r:id="rId46" display="shockey.wu@wework.cn"/>
-    <hyperlink ref="C111" r:id="rId47" display="ziliang.hong@wework.cn"/>
-    <hyperlink ref="C61" r:id="rId48" display="lucy.liu@wework.cn"/>
-    <hyperlink ref="C162" r:id="rId49" display="renee.lui@wework.cn"/>
-    <hyperlink ref="C28" r:id="rId50" display="stan.lee@wework.cn"/>
-    <hyperlink ref="C93" r:id="rId51" display="minglu.wu@wework.cn"/>
-    <hyperlink ref="C20" r:id="rId52" display="lisa.peng@wework.cn"/>
-    <hyperlink ref="C77" r:id="rId53" display="james.ding@wework.cn"/>
-    <hyperlink ref="C128" r:id="rId54" display="wookie.choi@wework.hk"/>
-    <hyperlink ref="C12" r:id="rId55" display="shuharn.yeh@wework.cn"/>
-    <hyperlink ref="C37" r:id="rId56" display="ada.xu@wework.cn"/>
-    <hyperlink ref="C35" r:id="rId57" display="feng.ji@wework.cn"/>
-    <hyperlink ref="C91" r:id="rId58" display="stephanie.jin@wework.cn"/>
-    <hyperlink ref="C156" r:id="rId59" display="connie.gong@wework.cn"/>
-    <hyperlink ref="C150" r:id="rId60" display="susy.liu@wework.cn"/>
-    <hyperlink ref="C17" r:id="rId61" display="jiaao.wu@wework.cn"/>
-    <hyperlink ref="C69" r:id="rId62" display="jason.ji@wework.cn"/>
-    <hyperlink ref="C30" r:id="rId63" display="xingwei.fu@wework.cn"/>
-    <hyperlink ref="C113" r:id="rId64" display="gia.tan@wework.cn"/>
+    <hyperlink ref="C149" r:id="rId14" display="hui.chen@wework.cn" tooltip="mailto:hui.chen@wework.cn"/>
+    <hyperlink ref="C99" r:id="rId15" display="xenia.gu@wework.cn" tooltip="mailto:xenia.gu@wework.cn"/>
+    <hyperlink ref="C129" r:id="rId16" display="Charis.Yim@wework.hk" tooltip="mailto:Charis.Yim@wework.hk"/>
+    <hyperlink ref="C24" r:id="rId17" display="dee.lu@wework.cn" tooltip="mailto:dee.lu@wework.cn"/>
+    <hyperlink ref="C131" r:id="rId18" display="pinki.fung@wework.hk" tooltip="mailto:pinki.fung@wework.hk"/>
+    <hyperlink ref="C32" r:id="rId19" display="dianguo.zhu@wework.cn" tooltip="mailto:dianguo.zhu@wework.cn"/>
+    <hyperlink ref="C51" r:id="rId20" display="iris.sun@wework.cn" tooltip="mailto:iris.sun@wework.cn"/>
+    <hyperlink ref="C155" r:id="rId21" display="mia.zhang@wework.cn" tooltip="mailto:mia.zhang@wework.cn"/>
+    <hyperlink ref="C126" r:id="rId22" display="Venus.law@wework.hk" tooltip="mailto:Venus.law@wework.hk"/>
+    <hyperlink ref="C36" r:id="rId23" display="suzie.liu@wework.cn" tooltip="mailto:suzie.liu@wework.cn"/>
+    <hyperlink ref="C143" r:id="rId24" display="claire.wang@wework.cn" tooltip="mailto:claire.wang@wework.cn"/>
+    <hyperlink ref="C60" r:id="rId25" display="aolun.pan@wework.cn" tooltip="mailto:aolun.pan@wework.cn"/>
+    <hyperlink ref="C120" r:id="rId26" display="elena.wang@wework.cn" tooltip="mailto:elena.wang@wework.cn"/>
+    <hyperlink ref="C75" r:id="rId27" display="hazel.xia@wework.cn" tooltip="mailto:hazel.xia@wework.cn"/>
+    <hyperlink ref="C163" r:id="rId28" display="lingqi.chen@wework.cn" tooltip="mailto:lingqi.chen@wework.cn"/>
+    <hyperlink ref="C123" r:id="rId29" display="victoria.hu@wework.hk" tooltip="mailto:victoria.hu@wework.hk"/>
+    <hyperlink ref="C133" r:id="rId30" display="ada.ho@wework.hk" tooltip="mailto:ada.ho@wework.hk"/>
+    <hyperlink ref="C85" r:id="rId31" display="leila.deng@wework.cn" tooltip="mailto:leila.deng@wework.cn"/>
+    <hyperlink ref="C16" r:id="rId32" display="shenlun.wang@wework.cn" tooltip="mailto:shenlun.wang@wework.cn"/>
+    <hyperlink ref="C110" r:id="rId33" display="helena.pu@wework.cn" tooltip="mailto:helena.pu@wework.cn"/>
+    <hyperlink ref="C161" r:id="rId34" display="sunny.hung@wework.cn" tooltip="mailto:sunny.hung@wework.cn"/>
+    <hyperlink ref="C139" r:id="rId35" display="luna.lu@wework.cn" tooltip="mailto:luna.lu@wework.cn"/>
+    <hyperlink ref="C33" r:id="rId36" display="jessie.gao@wework.cn" tooltip="mailto:jessie.gao@wework.cn"/>
+    <hyperlink ref="C121" r:id="rId37" display="nancy.yip@wework.hk" tooltip="mailto:nancy.yip@wework.hk"/>
+    <hyperlink ref="C76" r:id="rId38" display="jan.tong@wework.cn" tooltip="mailto:jan.tong@wework.cn"/>
+    <hyperlink ref="C96" r:id="rId39" display="elsie.liu@wework.cn" tooltip="mailto:elsie.liu@wework.cn"/>
+    <hyperlink ref="C3" r:id="rId40" display="conan.quan@wework.cn" tooltip="mailto:conan.quan@wework.cn"/>
+    <hyperlink ref="C34" r:id="rId41" display="samuel.wu@wework.cn" tooltip="mailto:samuel.wu@wework.cn"/>
+    <hyperlink ref="C73" r:id="rId42" display="dingman.liu@wework.cn" tooltip="mailto:dingman.liu@wework.cn"/>
+    <hyperlink ref="C112" r:id="rId43" display="vanessa.wang@wework.cn" tooltip="mailto:vanessa.wang@wework.cn"/>
+    <hyperlink ref="C147" r:id="rId44" display="anna.yang@wework.cn" tooltip="mailto:anna.yang@wework.cn"/>
+    <hyperlink ref="C65" r:id="rId45" display="karen.chen@wework.cn" tooltip="mailto:karen.chen@wework.cn"/>
+    <hyperlink ref="C15" r:id="rId46" display="shockey.wu@wework.cn" tooltip="mailto:shockey.wu@wework.cn"/>
+    <hyperlink ref="C111" r:id="rId47" display="ziliang.hong@wework.cn" tooltip="mailto:ziliang.hong@wework.cn"/>
+    <hyperlink ref="C61" r:id="rId48" display="lucy.liu@wework.cn" tooltip="mailto:lucy.liu@wework.cn"/>
+    <hyperlink ref="C162" r:id="rId49" display="renee.lui@wework.cn" tooltip="mailto:renee.lui@wework.cn"/>
+    <hyperlink ref="C28" r:id="rId50" display="stan.lee@wework.cn" tooltip="mailto:stan.lee@wework.cn"/>
+    <hyperlink ref="C93" r:id="rId51" display="minglu.wu@wework.cn" tooltip="mailto:minglu.wu@wework.cn"/>
+    <hyperlink ref="C20" r:id="rId52" display="lisa.peng@wework.cn" tooltip="mailto:lisa.peng@wework.cn"/>
+    <hyperlink ref="C77" r:id="rId53" display="james.ding@wework.cn" tooltip="mailto:james.ding@wework.cn"/>
+    <hyperlink ref="C128" r:id="rId54" display="wookie.choi@wework.hk" tooltip="mailto:wookie.choi@wework.hk"/>
+    <hyperlink ref="C12" r:id="rId55" display="shuharn.yeh@wework.cn" tooltip="mailto:shuharn.yeh@wework.cn"/>
+    <hyperlink ref="C37" r:id="rId56" display="ada.xu@wework.cn" tooltip="mailto:ada.xu@wework.cn"/>
+    <hyperlink ref="C35" r:id="rId57" display="feng.ji@wework.cn" tooltip="mailto:feng.ji@wework.cn"/>
+    <hyperlink ref="C91" r:id="rId58" display="stephanie.jin@wework.cn" tooltip="mailto:stephanie.jin@wework.cn"/>
+    <hyperlink ref="C156" r:id="rId59" display="connie.gong@wework.cn" tooltip="mailto:connie.gong@wework.cn"/>
+    <hyperlink ref="C150" r:id="rId60" display="susy.liu@wework.cn" tooltip="mailto:susy.liu@wework.cn"/>
+    <hyperlink ref="C17" r:id="rId61" display="jiaao.wu@wework.cn" tooltip="mailto:jiaao.wu@wework.cn"/>
+    <hyperlink ref="C69" r:id="rId62" display="jason.ji@wework.cn" tooltip="mailto:jason.ji@wework.cn"/>
+    <hyperlink ref="C30" r:id="rId63" display="xingwei.fu@wework.cn" tooltip="mailto:xingwei.fu@wework.cn"/>
+    <hyperlink ref="C113" r:id="rId64" display="gia.tan@wework.cn" tooltip="mailto:gia.tan@wework.cn"/>
     <hyperlink ref="C124" r:id="rId65" display="kristie.look@wework.hk"/>
-    <hyperlink ref="C108" r:id="rId66" display="aaron.lin@wework.cn"/>
-    <hyperlink ref="C136" r:id="rId67" display="stephen.leung@wework.hk"/>
-    <hyperlink ref="C87" r:id="rId68" display="Ariel.wu@wework.cn"/>
-    <hyperlink ref="C107" r:id="rId69" display="martina.huang@wework.cn"/>
-    <hyperlink ref="C132" r:id="rId70" display="pinky.yuen@wework.hk"/>
-    <hyperlink ref="C22" r:id="rId71" display="alice.ni@wework.cn"/>
-    <hyperlink ref="C119" r:id="rId72" display="vincen.lu@wework.cn"/>
-    <hyperlink ref="C100" r:id="rId73" display="tony.huang@wework.cn"/>
-    <hyperlink ref="C152" r:id="rId74" display="eric.du@wework.cn"/>
-    <hyperlink ref="C10" r:id="rId75" display="elisha.wang@wework.cn"/>
-    <hyperlink ref="C116" r:id="rId76" display="Benjamin.shih@wework.cn"/>
-    <hyperlink ref="C44" r:id="rId77" display="serena.hu@wework.cn"/>
-    <hyperlink ref="C31" r:id="rId78" display="yao.zhang@wework.cn"/>
-    <hyperlink ref="C142" r:id="rId79" display="emily.wan@wework.cn"/>
-    <hyperlink ref="C62" r:id="rId80" display="fiona.gong@wework.cn"/>
-    <hyperlink ref="C48" r:id="rId81" display="mingxi.ding@wework.cn"/>
-    <hyperlink ref="C26" r:id="rId82" display="joanna.jin@wework.cn"/>
-    <hyperlink ref="C144" r:id="rId83" display="fiona.wei@wework.cn"/>
-    <hyperlink ref="C8" r:id="rId84" display="evelyn.shen@wework.cn"/>
-    <hyperlink ref="C104" r:id="rId85" display="carrie.zheng@wework.cn"/>
-    <hyperlink ref="C109" r:id="rId86" display="garki.lin2@wework.cn"/>
-    <hyperlink ref="C90" r:id="rId87" display="leonard.xu@wework.cn"/>
-    <hyperlink ref="C67" r:id="rId88" display="luyao.qi@wework.cn"/>
-    <hyperlink ref="C46" r:id="rId89" display="rita.liu@wework.cn"/>
-    <hyperlink ref="C97" r:id="rId90" display="lindsay.wang@wework.cn"/>
-    <hyperlink ref="C157" r:id="rId91" display="danni.li@wework.cn"/>
-    <hyperlink ref="C42" r:id="rId92" display="maggie.hou@wework.cn"/>
-    <hyperlink ref="C137" r:id="rId93" display="rui.bai@wework.cn"/>
-    <hyperlink ref="C27" r:id="rId94" display="yue.huang@wework.cn"/>
-    <hyperlink ref="C72" r:id="rId95" display="candy.kuo@wework.cn"/>
-    <hyperlink ref="C134" r:id="rId96" display="prashasti.sharma@wework.hk"/>
-    <hyperlink ref="C160" r:id="rId97" display="zhengxiang.chen@wework.cn"/>
-    <hyperlink ref="C88" r:id="rId98" display="nicole.xu@wework.cn"/>
-    <hyperlink ref="C92" r:id="rId99" display="ami.kao@wework.cn"/>
-    <hyperlink ref="C148" r:id="rId100" display="mary.ma@wework.cn"/>
-    <hyperlink ref="C40" r:id="rId101" display="jasmine.wei@wework.cn"/>
-    <hyperlink ref="C125" r:id="rId102" display="Vienne.poon@wework.hk"/>
-    <hyperlink ref="C50" r:id="rId103" display="kevin.fan@wework.cn"/>
-    <hyperlink ref="C117" r:id="rId104" display="hang.wang@wework.cn"/>
-    <hyperlink ref="C95" r:id="rId105" display="hailey.cai@wework.cn"/>
-    <hyperlink ref="C18" r:id="rId106" display="alfonso.comino@wework.cn"/>
-    <hyperlink ref="C115" r:id="rId107" display="kenny.lin@wework.cn"/>
-    <hyperlink ref="C146" r:id="rId108" display="karen.guan@wework.cn"/>
-    <hyperlink ref="C45" r:id="rId109" display="cheryl.wang@wework.cn"/>
+    <hyperlink ref="C108" r:id="rId66" display="aaron.lin@wework.cn" tooltip="mailto:aaron.lin@wework.cn"/>
+    <hyperlink ref="C136" r:id="rId67" display="stephen.leung@wework.hk" tooltip="mailto:stephen.leung@wework.hk"/>
+    <hyperlink ref="C87" r:id="rId68" display="Ariel.wu@wework.cn" tooltip="mailto:Ariel.wu@wework.cn"/>
+    <hyperlink ref="C107" r:id="rId69" display="martina.huang@wework.cn" tooltip="mailto:martina.huang@wework.cn"/>
+    <hyperlink ref="C132" r:id="rId70" display="pinky.yuen@wework.hk" tooltip="mailto:pinky.yuen@wework.hk"/>
+    <hyperlink ref="C22" r:id="rId71" display="alice.ni@wework.cn" tooltip="mailto:alice.ni@wework.cn"/>
+    <hyperlink ref="C119" r:id="rId72" display="vincen.lu@wework.cn" tooltip="mailto:vincen.lu@wework.cn"/>
+    <hyperlink ref="C100" r:id="rId73" display="tony.huang@wework.cn" tooltip="mailto:tony.huang@wework.cn"/>
+    <hyperlink ref="C152" r:id="rId74" display="eric.du@wework.cn" tooltip="mailto:eric.du@wework.cn"/>
+    <hyperlink ref="C10" r:id="rId75" display="elisha.wang@wework.cn" tooltip="mailto:elisha.wang@wework.cn"/>
+    <hyperlink ref="C116" r:id="rId76" display="Benjamin.shih@wework.cn" tooltip="mailto:Benjamin.shih@wework.cn"/>
+    <hyperlink ref="C44" r:id="rId77" display="serena.hu@wework.cn" tooltip="mailto:serena.hu@wework.cn"/>
+    <hyperlink ref="C31" r:id="rId78" display="yao.zhang@wework.cn" tooltip="mailto:yao.zhang@wework.cn"/>
+    <hyperlink ref="C142" r:id="rId79" display="emily.wan@wework.cn" tooltip="mailto:emily.wan@wework.cn"/>
+    <hyperlink ref="C62" r:id="rId80" display="fiona.gong@wework.cn" tooltip="mailto:fiona.gong@wework.cn"/>
+    <hyperlink ref="C48" r:id="rId81" display="mingxi.ding@wework.cn" tooltip="mailto:mingxi.ding@wework.cn"/>
+    <hyperlink ref="C26" r:id="rId82" display="joanna.jin@wework.cn" tooltip="mailto:joanna.jin@wework.cn"/>
+    <hyperlink ref="C144" r:id="rId83" display="fiona.wei@wework.cn" tooltip="mailto:fiona.wei@wework.cn"/>
+    <hyperlink ref="C8" r:id="rId84" display="evelyn.shen@wework.cn" tooltip="mailto:evelyn.shen@wework.cn"/>
+    <hyperlink ref="C104" r:id="rId85" display="carrie.zheng@wework.cn" tooltip="mailto:carrie.zheng@wework.cn"/>
+    <hyperlink ref="C109" r:id="rId86" display="garki.lin2@wework.cn" tooltip="mailto:garki.lin2@wework.cn"/>
+    <hyperlink ref="C90" r:id="rId87" display="leonard.xu@wework.cn" tooltip="mailto:leonard.xu@wework.cn"/>
+    <hyperlink ref="C67" r:id="rId88" display="luyao.qi@wework.cn" tooltip="mailto:luyao.qi@wework.cn"/>
+    <hyperlink ref="C46" r:id="rId89" display="rita.liu@wework.cn" tooltip="mailto:rita.liu@wework.cn"/>
+    <hyperlink ref="C97" r:id="rId90" display="lindsay.wang@wework.cn" tooltip="mailto:lindsay.wang@wework.cn"/>
+    <hyperlink ref="C157" r:id="rId91" display="danni.li@wework.cn" tooltip="mailto:danni.li@wework.cn"/>
+    <hyperlink ref="C42" r:id="rId92" display="maggie.hou@wework.cn" tooltip="mailto:maggie.hou@wework.cn"/>
+    <hyperlink ref="C137" r:id="rId93" display="rui.bai@wework.cn" tooltip="mailto:rui.bai@wework.cn"/>
+    <hyperlink ref="C27" r:id="rId94" display="yue.huang@wework.cn" tooltip="mailto:yue.huang@wework.cn"/>
+    <hyperlink ref="C72" r:id="rId95" display="candy.kuo@wework.cn" tooltip="mailto:candy.kuo@wework.cn"/>
+    <hyperlink ref="C134" r:id="rId96" display="prashasti.sharma@wework.hk" tooltip="mailto:prashasti.sharma@wework.hk"/>
+    <hyperlink ref="C160" r:id="rId97" display="zhengxiang.chen@wework.cn" tooltip="mailto:zhengxiang.chen@wework.cn"/>
+    <hyperlink ref="C88" r:id="rId98" display="nicole.xu@wework.cn" tooltip="mailto:nicole.xu@wework.cn"/>
+    <hyperlink ref="C92" r:id="rId99" display="ami.kao@wework.cn" tooltip="mailto:ami.kao@wework.cn"/>
+    <hyperlink ref="C148" r:id="rId100" display="mary.ma@wework.cn" tooltip="mailto:mary.ma@wework.cn"/>
+    <hyperlink ref="C40" r:id="rId101" display="jasmine.wei@wework.cn" tooltip="mailto:jasmine.wei@wework.cn"/>
+    <hyperlink ref="C125" r:id="rId102" display="Vienne.poon@wework.hk" tooltip="mailto:Vienne.poon@wework.hk"/>
+    <hyperlink ref="C50" r:id="rId103" display="kevin.fan@wework.cn" tooltip="mailto:kevin.fan@wework.cn"/>
+    <hyperlink ref="C117" r:id="rId104" display="hang.wang@wework.cn" tooltip="mailto:hang.wang@wework.cn"/>
+    <hyperlink ref="C95" r:id="rId105" display="hailey.cai@wework.cn" tooltip="mailto:hailey.cai@wework.cn"/>
+    <hyperlink ref="C18" r:id="rId106" display="alfonso.comino@wework.cn" tooltip="mailto:alfonso.comino@wework.cn"/>
+    <hyperlink ref="C115" r:id="rId107" display="kenny.lin@wework.cn" tooltip="mailto:kenny.lin@wework.cn"/>
+    <hyperlink ref="C146" r:id="rId108" display="karen.guan@wework.cn" tooltip="mailto:karen.guan@wework.cn"/>
+    <hyperlink ref="C45" r:id="rId109" display="cheryl.wang@wework.cn" tooltip="mailto:cheryl.wang@wework.cn"/>
     <hyperlink ref="C94" r:id="rId110" display="helen.wang@wework.cn"/>
-    <hyperlink ref="C114" r:id="rId111" display="seiko.huang@wework.cn"/>
-    <hyperlink ref="C59" r:id="rId112" display="menglei.zhang@wework.cn"/>
-    <hyperlink ref="C122" r:id="rId113" display="tommy.lam@wework.hk"/>
-    <hyperlink ref="C127" r:id="rId114" display="Samantha.chan@wework.hk"/>
-    <hyperlink ref="C71" r:id="rId115" display="ivy.xue@wework.cn"/>
-    <hyperlink ref="C25" r:id="rId116" display="ling.yan@wework.cn"/>
-    <hyperlink ref="C145" r:id="rId117" display="ecco.tan@wework.cn"/>
-    <hyperlink ref="C21" r:id="rId118" display="lillian.wang@wework.cn"/>
-    <hyperlink ref="C43" r:id="rId119" display="julian.li@wework.cn"/>
-    <hyperlink ref="C83" r:id="rId120" display="jessica.zhang@wework.cn"/>
-    <hyperlink ref="C6" r:id="rId121" display="dan.zhu@wework.cn"/>
-    <hyperlink ref="C153" r:id="rId122" display="yunhan.liu@wework.cn"/>
-    <hyperlink ref="C105" r:id="rId123" display="eva.zhang@wework.cn"/>
-    <hyperlink ref="C9" r:id="rId124" display="jackson.pan@wework.cn"/>
-    <hyperlink ref="C57" r:id="rId125" display="ellie.zhou@wework.cn"/>
-    <hyperlink ref="C138" r:id="rId126" display="nicole.ning@wework.cn"/>
-    <hyperlink ref="C54" r:id="rId127" display="wen.zhang@wework.cn"/>
-    <hyperlink ref="C82" r:id="rId128" display="meredith.wang@wework.cn"/>
-    <hyperlink ref="C7" r:id="rId129" display="teresa.lv@wework.cn"/>
-    <hyperlink ref="C78" r:id="rId130" display="crystal.shi@wework.cn"/>
-    <hyperlink ref="C70" r:id="rId131" display="hanwei.dong@wework.cn"/>
-    <hyperlink ref="C56" r:id="rId132" display="bryan.han@wework.cn"/>
-    <hyperlink ref="C38" r:id="rId133" display="helen.qin@wework.cn"/>
-    <hyperlink ref="C79" r:id="rId134" display="minn.ni@wework.cn"/>
-    <hyperlink ref="C106" r:id="rId135" display="monty.leung@wework.cn"/>
-    <hyperlink ref="C23" r:id="rId136" display="ashley.lin@wework.cn"/>
-    <hyperlink ref="C29" r:id="rId137" display="yi-chien.lin@wework.cn"/>
-    <hyperlink ref="C14" r:id="rId138" display="yiyun.wu@wework.cn"/>
-    <hyperlink ref="C154" r:id="rId139" display="eddie.liu@wework.cn"/>
-    <hyperlink ref="C151" r:id="rId140" display="joy.zhou@wework.cn"/>
-    <hyperlink ref="C135" r:id="rId141" display="kay.kam@wework.hk"/>
-    <hyperlink ref="C103" r:id="rId142" display="vivian.xu@wework.cn"/>
-    <hyperlink ref="C81" r:id="rId143" display="sarah.li@wework.cn"/>
-    <hyperlink ref="C41" r:id="rId144" display="xinhe.zhang@wework.cn"/>
-    <hyperlink ref="C47" r:id="rId145" display="cici.zhang@wework.cn"/>
-    <hyperlink ref="C102" r:id="rId146" display="Faye.zheng@wework.cn"/>
-    <hyperlink ref="C4" r:id="rId147" display="kurt.wang@wework.cn"/>
-    <hyperlink ref="C13" r:id="rId148" display="kelly.huo@wework.cn"/>
-    <hyperlink ref="C49" r:id="rId149" display="lewis.liu@wework.cn"/>
-    <hyperlink ref="C159" r:id="rId150" display="success.chen@wework.cn"/>
-    <hyperlink ref="C84" r:id="rId151" display="adriana.tai@wework.cn"/>
-    <hyperlink ref="C66" r:id="rId152" display="stefanie.wu@wework.cn"/>
-    <hyperlink ref="C5" r:id="rId153" display="ray.zhu@wework.cn"/>
-    <hyperlink ref="C64" r:id="rId154" display="lian.gan@wework.cn"/>
-    <hyperlink ref="C118" r:id="rId155" display="june.li@wework.cn"/>
-    <hyperlink ref="C52" r:id="rId156" display="Wendy.wang@wework.cn"/>
-    <hyperlink ref="C130" r:id="rId157" display="nathan.lin@weworktw.co"/>
-    <hyperlink ref="C39" r:id="rId158" display="nicolas.huang@wework.cn"/>
-    <hyperlink ref="C68" r:id="rId159" display="earle.zhu@wework.cn"/>
-    <hyperlink ref="C98" r:id="rId160" display="yoyo.wu@wework.cn"/>
-    <hyperlink ref="C74" r:id="rId161" display="joey.zhang@wework.cn"/>
-    <hyperlink ref="C19" r:id="rId162" display="ziz.zhang@wework.cn"/>
-    <hyperlink ref="C89" r:id="rId163" display="effy.zhao@wework.cn"/>
+    <hyperlink ref="C114" r:id="rId111" display="seiko.huang@wework.cn" tooltip="mailto:seiko.huang@wework.cn"/>
+    <hyperlink ref="C59" r:id="rId112" display="menglei.zhang@wework.cn" tooltip="mailto:menglei.zhang@wework.cn"/>
+    <hyperlink ref="C122" r:id="rId113" display="tommy.lam@wework.hk" tooltip="mailto:tommy.lam@wework.hk"/>
+    <hyperlink ref="C127" r:id="rId114" display="Samantha.chan@wework.hk" tooltip="mailto:Samantha.chan@wework.hk"/>
+    <hyperlink ref="C71" r:id="rId115" display="ivy.xue@wework.cn" tooltip="mailto:ivy.xue@wework.cn"/>
+    <hyperlink ref="C25" r:id="rId116" display="ling.yan@wework.cn" tooltip="mailto:ling.yan@wework.cn"/>
+    <hyperlink ref="C145" r:id="rId117" display="ecco.tan@wework.cn" tooltip="mailto:ecco.tan@wework.cn"/>
+    <hyperlink ref="C21" r:id="rId118" display="lillian.wang@wework.cn" tooltip="mailto:lillian.wang@wework.cn"/>
+    <hyperlink ref="C43" r:id="rId119" display="julian.li@wework.cn" tooltip="mailto:julian.li@wework.cn"/>
+    <hyperlink ref="C83" r:id="rId120" display="jessica.zhang@wework.cn" tooltip="mailto:jessica.zhang@wework.cn"/>
+    <hyperlink ref="C6" r:id="rId121" display="dan.zhu@wework.cn" tooltip="mailto:dan.zhu@wework.cn"/>
+    <hyperlink ref="C153" r:id="rId122" display="yunhan.liu@wework.cn" tooltip="mailto:yunhan.liu@wework.cn"/>
+    <hyperlink ref="C105" r:id="rId123" display="eva.zhang@wework.cn" tooltip="mailto:eva.zhang@wework.cn"/>
+    <hyperlink ref="C9" r:id="rId124" display="jackson.pan@wework.cn" tooltip="mailto:jackson.pan@wework.cn"/>
+    <hyperlink ref="C57" r:id="rId125" display="ellie.zhou@wework.cn" tooltip="mailto:ellie.zhou@wework.cn"/>
+    <hyperlink ref="C138" r:id="rId126" display="nicole.ning@wework.cn" tooltip="mailto:nicole.ning@wework.cn"/>
+    <hyperlink ref="C54" r:id="rId127" display="wen.zhang@wework.cn" tooltip="mailto:wen.zhang@wework.cn"/>
+    <hyperlink ref="C82" r:id="rId128" display="meredith.wang@wework.cn" tooltip="mailto:meredith.wang@wework.cn"/>
+    <hyperlink ref="C7" r:id="rId129" display="teresa.lv@wework.cn" tooltip="mailto:teresa.lv@wework.cn"/>
+    <hyperlink ref="C78" r:id="rId130" display="crystal.shi@wework.cn" tooltip="mailto:crystal.shi@wework.cn"/>
+    <hyperlink ref="C70" r:id="rId131" display="hanwei.dong@wework.cn" tooltip="mailto:hanwei.dong@wework.cn"/>
+    <hyperlink ref="C56" r:id="rId132" display="bryan.han@wework.cn" tooltip="mailto:bryan.han@wework.cn"/>
+    <hyperlink ref="C38" r:id="rId133" display="helen.qin@wework.cn" tooltip="mailto:helen.qin@wework.cn"/>
+    <hyperlink ref="C79" r:id="rId134" display="minn.ni@wework.cn" tooltip="mailto:minn.ni@wework.cn"/>
+    <hyperlink ref="C106" r:id="rId135" display="monty.leung@wework.cn" tooltip="mailto:monty.leung@wework.cn"/>
+    <hyperlink ref="C23" r:id="rId136" display="ashley.lin@wework.cn" tooltip="mailto:ashley.lin@wework.cn"/>
+    <hyperlink ref="C29" r:id="rId137" display="yi-chien.lin@wework.cn" tooltip="mailto:yi-chien.lin@wework.cn"/>
+    <hyperlink ref="C14" r:id="rId138" display="yiyun.wu@wework.cn" tooltip="mailto:yiyun.wu@wework.cn"/>
+    <hyperlink ref="C154" r:id="rId139" display="eddie.liu@wework.cn" tooltip="mailto:eddie.liu@wework.cn"/>
+    <hyperlink ref="C151" r:id="rId140" display="joy.zhou@wework.cn" tooltip="mailto:joy.zhou@wework.cn"/>
+    <hyperlink ref="C135" r:id="rId141" display="kay.kam@wework.hk" tooltip="mailto:kay.kam@wework.hk"/>
+    <hyperlink ref="C103" r:id="rId142" display="vivian.xu@wework.cn" tooltip="mailto:vivian.xu@wework.cn"/>
+    <hyperlink ref="C81" r:id="rId143" display="sarah.li@wework.cn" tooltip="mailto:sarah.li@wework.cn"/>
+    <hyperlink ref="C41" r:id="rId144" display="xinhe.zhang@wework.cn" tooltip="mailto:xinhe.zhang@wework.cn"/>
+    <hyperlink ref="C47" r:id="rId145" display="cici.zhang@wework.cn" tooltip="mailto:cici.zhang@wework.cn"/>
+    <hyperlink ref="C102" r:id="rId146" display="Faye.zheng@wework.cn" tooltip="mailto:Faye.zheng@wework.cn"/>
+    <hyperlink ref="C4" r:id="rId147" display="kurt.wang@wework.cn" tooltip="mailto:kurt.wang@wework.cn"/>
+    <hyperlink ref="C13" r:id="rId148" display="kelly.huo@wework.cn" tooltip="mailto:kelly.huo@wework.cn"/>
+    <hyperlink ref="C49" r:id="rId149" display="lewis.liu@wework.cn" tooltip="mailto:lewis.liu@wework.cn"/>
+    <hyperlink ref="C159" r:id="rId150" display="success.chen@wework.cn" tooltip="mailto:success.chen@wework.cn"/>
+    <hyperlink ref="C84" r:id="rId151" display="adriana.tai@wework.cn" tooltip="mailto:adriana.tai@wework.cn"/>
+    <hyperlink ref="C66" r:id="rId152" display="stefanie.wu@wework.cn" tooltip="mailto:stefanie.wu@wework.cn"/>
+    <hyperlink ref="C5" r:id="rId153" display="ray.zhu@wework.cn" tooltip="mailto:ray.zhu@wework.cn"/>
+    <hyperlink ref="C64" r:id="rId154" display="lian.gan@wework.cn" tooltip="mailto:lian.gan@wework.cn"/>
+    <hyperlink ref="C118" r:id="rId155" display="june.li@wework.cn" tooltip="mailto:june.li@wework.cn"/>
+    <hyperlink ref="C52" r:id="rId156" display="Wendy.wang@wework.cn" tooltip="mailto:Wendy.wang@wework.cn"/>
+    <hyperlink ref="C130" r:id="rId157" display="nathan.lin@weworktw.co" tooltip="mailto:nathan.lin@weworktw.co"/>
+    <hyperlink ref="C39" r:id="rId158" display="nicolas.huang@wework.cn" tooltip="mailto:nicolas.huang@wework.cn"/>
+    <hyperlink ref="C68" r:id="rId159" display="earle.zhu@wework.cn" tooltip="mailto:earle.zhu@wework.cn"/>
+    <hyperlink ref="C98" r:id="rId160" display="yoyo.wu@wework.cn" tooltip="mailto:yoyo.wu@wework.cn"/>
+    <hyperlink ref="C74" r:id="rId161" display="joey.zhang@wework.cn" tooltip="mailto:joey.zhang@wework.cn"/>
+    <hyperlink ref="C19" r:id="rId162" display="ziz.zhang@wework.cn" tooltip="mailto:ziz.zhang@wework.cn"/>
+    <hyperlink ref="C89" r:id="rId163" display="effy.zhao@wework.cn" tooltip="mailto:effy.zhao@wework.cn"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -4863,7 +5348,7 @@
   <sheetData>
     <row r="1" ht="97" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4875,51 +5360,51 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="J2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -4927,58 +5412,58 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" t="s">
         <v>364</v>
       </c>
-      <c r="B3" t="s">
-        <v>360</v>
-      </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D5" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -5007,97 +5492,97 @@
   <sheetData>
     <row r="1" ht="12.4" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/aliyun_user/QuickBI用户分组.xlsx
+++ b/aliyun_user/QuickBI用户分组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14860"/>
+    <workbookView windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,8 +73,7 @@
     <t>部门负责人（部门审批人）</t>
   </si>
   <si>
-    <t>connie.gong@wework.cn
-nicolas.huang@wework.cn</t>
+    <t>maria.zhu@wework.cn</t>
   </si>
   <si>
     <t>Y</t>
@@ -205,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -277,23 +276,23 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF1265BE"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1265BE"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -357,6 +356,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -365,39 +424,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,14 +440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -427,29 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,175 +494,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,32 +700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -742,17 +715,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,10 +749,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,135 +791,135 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -962,13 +961,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="41"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1317,14 +1319,14 @@
   <dimension ref="A1:X267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="11.2"/>
   <cols>
     <col min="1" max="1" width="14.9134615384615" customWidth="1"/>
     <col min="2" max="2" width="12.0865384615385" customWidth="1"/>
-    <col min="3" max="3" width="35.0769230769231" customWidth="1"/>
+    <col min="3" max="3" width="63.2115384615385" customWidth="1"/>
     <col min="4" max="4" width="23.5865384615385" customWidth="1"/>
     <col min="5" max="5" width="14.4134615384615" customWidth="1"/>
     <col min="6" max="6" width="8.75" customWidth="1"/>
@@ -1378,7 +1380,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" ht="25" spans="1:24">
+    <row r="2" ht="13" spans="1:24">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -1424,25 +1426,25 @@
     </row>
     <row r="4" ht="14" spans="2:6">
       <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="14"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" ht="14" spans="2:6">
       <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" ht="14" spans="2:6">
       <c r="B6" s="13"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="14"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" ht="14" spans="3:6">
       <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="14"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" ht="14" spans="3:6">
@@ -1472,7 +1474,7 @@
     </row>
     <row r="13" ht="14" spans="3:6">
       <c r="C13" s="12"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" ht="14" spans="3:6">
@@ -1531,15 +1533,15 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="14" spans="2:6">
-      <c r="B25" s="17"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" ht="14" spans="2:6">
-      <c r="B26" s="17"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" ht="14" spans="3:6">
@@ -1549,77 +1551,77 @@
     </row>
     <row r="28" ht="14" spans="3:6">
       <c r="C28" s="12"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="17"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" ht="14" spans="3:6">
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" ht="14" spans="2:6">
-      <c r="B30" s="17"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" ht="14" spans="1:6">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" ht="14" spans="1:6">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" ht="14" spans="1:6">
-      <c r="A33" s="18"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" ht="14" spans="1:6">
-      <c r="A34" s="18"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" ht="14" spans="1:6">
-      <c r="A35" s="18"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" ht="14" spans="2:6">
-      <c r="B36" s="17"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" ht="14" spans="2:6">
-      <c r="B37" s="17"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" ht="14" spans="2:6">
-      <c r="B38" s="17"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" ht="14" spans="2:6">
-      <c r="B39" s="17"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" ht="14" spans="3:6">
@@ -1753,7 +1755,7 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" ht="14" spans="2:6">
-      <c r="B66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="F66" s="1"/>
@@ -1789,8 +1791,7 @@
       <c r="F72" s="1"/>
     </row>
     <row r="73" ht="14.4" spans="3:6">
-      <c r="C73" s="20"/>
-      <c r="D73"/>
+      <c r="C73" s="21"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" ht="14" spans="3:6">
@@ -1839,8 +1840,7 @@
       <c r="F82" s="1"/>
     </row>
     <row r="83" ht="14.4" spans="3:6">
-      <c r="C83" s="20"/>
-      <c r="D83"/>
+      <c r="C83" s="21"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" ht="14" spans="3:6">
@@ -1854,7 +1854,7 @@
       <c r="F85" s="1"/>
     </row>
     <row r="86" ht="14" spans="2:6">
-      <c r="B86" s="19"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="F86" s="1"/>
@@ -1940,8 +1940,7 @@
       <c r="F102" s="1"/>
     </row>
     <row r="103" ht="14.4" spans="3:6">
-      <c r="C103" s="20"/>
-      <c r="D103"/>
+      <c r="C103" s="21"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" ht="14" spans="3:6">
@@ -1950,15 +1949,15 @@
       <c r="F104" s="1"/>
     </row>
     <row r="105" ht="14" spans="2:6">
-      <c r="B105" s="17"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" ht="14" spans="2:6">
-      <c r="B106" s="17"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" ht="14" spans="3:6">
@@ -2102,27 +2101,27 @@
       <c r="F134" s="1"/>
     </row>
     <row r="135" ht="14" spans="2:6">
-      <c r="B135" s="17"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
       <c r="F135" s="1"/>
     </row>
     <row r="136" ht="14" spans="2:6">
-      <c r="B136" s="17"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
       <c r="F136" s="1"/>
     </row>
     <row r="137" ht="14" spans="2:6">
-      <c r="B137" s="17"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
       <c r="F137" s="1"/>
     </row>
     <row r="138" ht="14" spans="2:6">
-      <c r="B138" s="17"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
       <c r="F138" s="1"/>
     </row>
     <row r="139" ht="14" spans="3:6">
@@ -2141,8 +2140,7 @@
       <c r="F141" s="1"/>
     </row>
     <row r="142" ht="14.4" spans="3:6">
-      <c r="C142" s="20"/>
-      <c r="D142"/>
+      <c r="C142" s="21"/>
       <c r="F142" s="1"/>
     </row>
     <row r="143" ht="14" spans="3:6">
@@ -2156,8 +2154,8 @@
       <c r="F144" s="1"/>
     </row>
     <row r="145" ht="12.4" spans="3:6">
-      <c r="C145" s="21"/>
-      <c r="D145" s="21"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
       <c r="F145" s="1"/>
     </row>
     <row r="146" ht="14" spans="3:6">
@@ -2191,57 +2189,57 @@
       <c r="F151" s="1"/>
     </row>
     <row r="152" ht="14" spans="2:6">
-      <c r="B152" s="17"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
       <c r="F152" s="1"/>
     </row>
     <row r="153" ht="14" spans="2:6">
-      <c r="B153" s="17"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
       <c r="F153" s="1"/>
     </row>
     <row r="154" ht="14" spans="2:6">
-      <c r="B154" s="17"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
       <c r="F154" s="1"/>
     </row>
     <row r="155" ht="14" spans="2:6">
-      <c r="B155" s="17"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
       <c r="F155" s="1"/>
     </row>
     <row r="156" ht="14" spans="2:6">
-      <c r="B156" s="17"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
       <c r="F156" s="1"/>
     </row>
     <row r="157" ht="14" spans="2:6">
-      <c r="B157" s="17"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
       <c r="F157" s="1"/>
     </row>
     <row r="158" ht="14" spans="2:6">
-      <c r="B158" s="17"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
       <c r="F158" s="1"/>
     </row>
     <row r="159" ht="14" spans="2:6">
-      <c r="B159" s="17"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
       <c r="F159" s="1"/>
     </row>
     <row r="160" ht="14" spans="2:6">
-      <c r="B160" s="17"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
       <c r="F160" s="1"/>
     </row>
     <row r="161" ht="14" spans="3:6">
@@ -2255,8 +2253,8 @@
       <c r="F162" s="1"/>
     </row>
     <row r="163" ht="14" spans="3:6">
-      <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
       <c r="F163" s="1"/>
     </row>
     <row r="164" ht="12.4" spans="6:6">
@@ -2576,14 +2574,16 @@
     <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C$1:D$1048576">
+  <conditionalFormatting sqref="C1:D3 D4 C5:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" display="是否需要访问核心指标(@关键指标汇总)"/>
-    <hyperlink ref="C2" r:id="rId2" display="connie.gong@wework.cn&#10;nicolas.huang@wework.cn"/>
+    <hyperlink ref="C2" r:id="rId2" display="maria.zhu@wework.cn" tooltip="mailto:maria.zhu@wework.cn"/>
+    <hyperlink ref="C3" r:id="rId3" tooltip="mailto:stella.liang@wework.cn"/>
+    <hyperlink ref="C4" r:id="rId4" tooltip="mailto:garki.lin@wework.cn"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/aliyun_user/QuickBI用户分组.xlsx
+++ b/aliyun_user/QuickBI用户分组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16460"/>
+    <workbookView windowHeight="14860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>业务部门</t>
   </si>
@@ -73,7 +73,7 @@
     <t>部门负责人（部门审批人）</t>
   </si>
   <si>
-    <t>maria.zhu@wework.cn</t>
+    <t>grace.yang2@wework.cn</t>
   </si>
   <si>
     <t>Y</t>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>san zhang</t>
+  </si>
+  <si>
+    <t>jane.liu@wework.cn</t>
   </si>
   <si>
     <t>账号级别</t>
@@ -204,12 +207,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -261,7 +264,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,12 +290,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -327,6 +328,90 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -334,15 +419,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,50 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -408,40 +443,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,14 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -488,19 +497,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,168 +677,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -682,11 +691,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,6 +735,47 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,217 +797,161 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -952,25 +976,24 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="41" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1319,7 +1342,7 @@
   <dimension ref="A1:X267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="11.2"/>
@@ -1380,7 +1403,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" ht="13" spans="1:24">
+    <row r="2" ht="13.15" spans="1:24">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -1418,37 +1441,39 @@
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" ht="14" spans="2:6">
+    <row r="3" ht="14.75" spans="2:6">
       <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="12"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" ht="14" spans="2:6">
+    <row r="4" ht="14.75" spans="2:6">
       <c r="B4" s="13"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" ht="14" spans="2:6">
+    <row r="5" ht="14.75" spans="2:6">
       <c r="B5" s="13"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" ht="14" spans="2:6">
+    <row r="6" ht="14.75" spans="2:6">
       <c r="B6" s="13"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" ht="14" spans="3:6">
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
+    <row r="7" ht="14.75" spans="3:6">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" ht="14" spans="3:6">
-      <c r="C8" s="12"/>
+    <row r="8" ht="14.75" spans="3:6">
+      <c r="C8" s="14"/>
       <c r="D8" s="12"/>
       <c r="F8" s="1"/>
     </row>
@@ -1474,7 +1499,7 @@
     </row>
     <row r="13" ht="14" spans="3:6">
       <c r="C13" s="12"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="16"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" ht="14" spans="3:6">
@@ -1533,15 +1558,15 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="14" spans="2:6">
-      <c r="B25" s="18"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" ht="14" spans="2:6">
-      <c r="B26" s="18"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" ht="14" spans="3:6">
@@ -1551,77 +1576,77 @@
     </row>
     <row r="28" ht="14" spans="3:6">
       <c r="C28" s="12"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="16"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" ht="14" spans="3:6">
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" ht="14" spans="2:6">
-      <c r="B30" s="18"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" ht="14" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" ht="14" spans="1:6">
-      <c r="A32" s="19"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" ht="14" spans="1:6">
-      <c r="A33" s="19"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" ht="14" spans="1:6">
-      <c r="A34" s="19"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" ht="14" spans="1:6">
-      <c r="A35" s="19"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" ht="14" spans="2:6">
-      <c r="B36" s="18"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" ht="14" spans="2:6">
-      <c r="B37" s="18"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" ht="14" spans="2:6">
-      <c r="B38" s="18"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" ht="14" spans="2:6">
-      <c r="B39" s="18"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" ht="14" spans="3:6">
@@ -1755,7 +1780,7 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" ht="14" spans="2:6">
-      <c r="B66" s="20"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="F66" s="1"/>
@@ -1791,7 +1816,7 @@
       <c r="F72" s="1"/>
     </row>
     <row r="73" ht="14.4" spans="3:6">
-      <c r="C73" s="21"/>
+      <c r="C73" s="20"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" ht="14" spans="3:6">
@@ -1840,7 +1865,7 @@
       <c r="F82" s="1"/>
     </row>
     <row r="83" ht="14.4" spans="3:6">
-      <c r="C83" s="21"/>
+      <c r="C83" s="20"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" ht="14" spans="3:6">
@@ -1854,7 +1879,7 @@
       <c r="F85" s="1"/>
     </row>
     <row r="86" ht="14" spans="2:6">
-      <c r="B86" s="20"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="F86" s="1"/>
@@ -1940,7 +1965,7 @@
       <c r="F102" s="1"/>
     </row>
     <row r="103" ht="14.4" spans="3:6">
-      <c r="C103" s="21"/>
+      <c r="C103" s="20"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" ht="14" spans="3:6">
@@ -1949,15 +1974,15 @@
       <c r="F104" s="1"/>
     </row>
     <row r="105" ht="14" spans="2:6">
-      <c r="B105" s="18"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" ht="14" spans="2:6">
-      <c r="B106" s="18"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" ht="14" spans="3:6">
@@ -2101,27 +2126,27 @@
       <c r="F134" s="1"/>
     </row>
     <row r="135" ht="14" spans="2:6">
-      <c r="B135" s="18"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
       <c r="F135" s="1"/>
     </row>
     <row r="136" ht="14" spans="2:6">
-      <c r="B136" s="18"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
       <c r="F136" s="1"/>
     </row>
     <row r="137" ht="14" spans="2:6">
-      <c r="B137" s="18"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
       <c r="F137" s="1"/>
     </row>
     <row r="138" ht="14" spans="2:6">
-      <c r="B138" s="18"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
       <c r="F138" s="1"/>
     </row>
     <row r="139" ht="14" spans="3:6">
@@ -2140,7 +2165,7 @@
       <c r="F141" s="1"/>
     </row>
     <row r="142" ht="14.4" spans="3:6">
-      <c r="C142" s="21"/>
+      <c r="C142" s="20"/>
       <c r="F142" s="1"/>
     </row>
     <row r="143" ht="14" spans="3:6">
@@ -2154,8 +2179,8 @@
       <c r="F144" s="1"/>
     </row>
     <row r="145" ht="12.4" spans="3:6">
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
       <c r="F145" s="1"/>
     </row>
     <row r="146" ht="14" spans="3:6">
@@ -2189,57 +2214,57 @@
       <c r="F151" s="1"/>
     </row>
     <row r="152" ht="14" spans="2:6">
-      <c r="B152" s="18"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
       <c r="F152" s="1"/>
     </row>
     <row r="153" ht="14" spans="2:6">
-      <c r="B153" s="18"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
       <c r="F153" s="1"/>
     </row>
     <row r="154" ht="14" spans="2:6">
-      <c r="B154" s="18"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
       <c r="F154" s="1"/>
     </row>
     <row r="155" ht="14" spans="2:6">
-      <c r="B155" s="18"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
       <c r="F155" s="1"/>
     </row>
     <row r="156" ht="14" spans="2:6">
-      <c r="B156" s="18"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
       <c r="F156" s="1"/>
     </row>
     <row r="157" ht="14" spans="2:6">
-      <c r="B157" s="18"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
       <c r="F157" s="1"/>
     </row>
     <row r="158" ht="14" spans="2:6">
-      <c r="B158" s="18"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
       <c r="F158" s="1"/>
     </row>
     <row r="159" ht="14" spans="2:6">
-      <c r="B159" s="18"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
       <c r="F159" s="1"/>
     </row>
     <row r="160" ht="14" spans="2:6">
-      <c r="B160" s="18"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
       <c r="F160" s="1"/>
     </row>
     <row r="161" ht="14" spans="3:6">
@@ -2253,8 +2278,8 @@
       <c r="F162" s="1"/>
     </row>
     <row r="163" ht="14" spans="3:6">
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
       <c r="F163" s="1"/>
     </row>
     <row r="164" ht="12.4" spans="6:6">
@@ -2574,16 +2599,15 @@
     <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D3 D4 C5:D1048576">
+  <conditionalFormatting sqref="C1:D1 D2:D8 C9:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" display="是否需要访问核心指标(@关键指标汇总)"/>
-    <hyperlink ref="C2" r:id="rId2" display="maria.zhu@wework.cn" tooltip="mailto:maria.zhu@wework.cn"/>
-    <hyperlink ref="C3" r:id="rId3" tooltip="mailto:stella.liang@wework.cn"/>
-    <hyperlink ref="C4" r:id="rId4" tooltip="mailto:garki.lin@wework.cn"/>
+    <hyperlink ref="C2" r:id="rId2" display="grace.yang2@wework.cn"/>
+    <hyperlink ref="C3" r:id="rId3" display="jane.liu@wework.cn"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2613,7 +2637,7 @@
   <sheetData>
     <row r="1" ht="97" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2634,19 +2658,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>8</v>
@@ -2654,22 +2678,22 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -2677,58 +2701,58 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2757,97 +2781,97 @@
   <sheetData>
     <row r="1" ht="12.4" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/aliyun_user/QuickBI用户分组.xlsx
+++ b/aliyun_user/QuickBI用户分组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14860"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>业务部门</t>
   </si>
@@ -73,7 +73,7 @@
     <t>部门负责人（部门审批人）</t>
   </si>
   <si>
-    <t>grace.yang2@wework.cn</t>
+    <t>kelly.qi@wework.cn</t>
   </si>
   <si>
     <t>Y</t>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>san zhang</t>
-  </si>
-  <si>
-    <t>jane.liu@wework.cn</t>
   </si>
   <si>
     <t>账号级别</t>
@@ -264,7 +261,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +276,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF1265BE"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -326,6 +331,35 @@
       <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -337,7 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,8 +384,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,44 +453,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,59 +461,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -497,187 +494,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,23 +706,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,6 +717,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,13 +745,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,174 +775,176 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,39 +973,41 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,7 +1341,7 @@
   <dimension ref="A1:X267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="11.2"/>
@@ -1403,7 +1402,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" ht="13.15" spans="1:24">
+    <row r="2" ht="13.75" spans="1:24">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -1443,9 +1442,7 @@
     </row>
     <row r="3" ht="14.75" spans="2:6">
       <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="F3" s="1"/>
     </row>
@@ -2606,8 +2603,8 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" display="是否需要访问核心指标(@关键指标汇总)"/>
-    <hyperlink ref="C2" r:id="rId2" display="grace.yang2@wework.cn"/>
-    <hyperlink ref="C3" r:id="rId3" display="jane.liu@wework.cn"/>
+    <hyperlink ref="C2" r:id="rId2" display="kelly.qi@wework.cn" tooltip="mailto:kelly.qi@wework.cn"/>
+    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2637,7 +2634,7 @@
   <sheetData>
     <row r="1" ht="97" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2658,19 +2655,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>8</v>
@@ -2678,22 +2675,22 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -2701,58 +2698,58 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2781,97 +2778,97 @@
   <sheetData>
     <row r="1" ht="12.4" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/aliyun_user/QuickBI用户分组.xlsx
+++ b/aliyun_user/QuickBI用户分组.xlsx
@@ -73,7 +73,7 @@
     <t>部门负责人（部门审批人）</t>
   </si>
   <si>
-    <t>kelly.qi@wework.cn</t>
+    <t>titi.zhuang@wework.cn</t>
   </si>
   <si>
     <t>Y</t>
@@ -204,9 +204,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -333,20 +333,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -356,6 +342,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -370,15 +377,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -408,8 +417,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,21 +429,6 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,17 +440,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,6 +454,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -494,187 +494,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,26 +706,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,6 +757,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -777,174 +785,166 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,7 +1341,7 @@
   <dimension ref="A1:X267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="11.2"/>
@@ -2603,7 +2603,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" display="是否需要访问核心指标(@关键指标汇总)"/>
-    <hyperlink ref="C2" r:id="rId2" display="kelly.qi@wework.cn" tooltip="mailto:kelly.qi@wework.cn"/>
+    <hyperlink ref="C2" r:id="rId2" display="titi.zhuang@wework.cn" tooltip="mailto:titi.zhuang@wework.cn"/>
     <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aliyun_user/QuickBI用户分组.xlsx
+++ b/aliyun_user/QuickBI用户分组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowHeight="15260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>部门负责人（部门审批人）</t>
   </si>
   <si>
-    <t>titi.zhuang@wework.cn</t>
+    <t>ting.lv@wework.cn</t>
   </si>
   <si>
     <t>Y</t>
@@ -204,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -333,6 +333,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -341,39 +407,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,68 +461,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -454,20 +468,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -494,187 +494,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,8 +706,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,6 +723,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,192 +794,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,7 +1341,7 @@
   <dimension ref="A1:X267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="11.2"/>
@@ -2603,7 +2603,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" display="是否需要访问核心指标(@关键指标汇总)"/>
-    <hyperlink ref="C2" r:id="rId2" display="titi.zhuang@wework.cn" tooltip="mailto:titi.zhuang@wework.cn"/>
+    <hyperlink ref="C2" r:id="rId2" display="ting.lv@wework.cn" tooltip="mailto:ting.lv@wework.cn"/>
     <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aliyun_user/QuickBI用户分组.xlsx
+++ b/aliyun_user/QuickBI用户分组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15260"/>
+    <workbookView windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>部门负责人（部门审批人）</t>
   </si>
   <si>
-    <t>ting.lv@wework.cn</t>
+    <t>peter.zhu@wework.cn</t>
   </si>
   <si>
     <t>Y</t>
@@ -204,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -261,7 +261,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,14 +276,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF1265BE"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -347,13 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -362,7 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,8 +362,85 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,68 +461,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -500,19 +500,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,151 +662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,28 +712,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,16 +731,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,6 +760,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -792,11 +786,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,149 +806,149 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -973,7 +973,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -982,32 +982,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,23 +1457,23 @@
     </row>
     <row r="5" ht="14.75" spans="2:6">
       <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="15"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" ht="14.75" spans="2:6">
       <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="15"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" ht="14.75" spans="3:6">
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="15"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" ht="14.75" spans="3:6">
-      <c r="C8" s="14"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="12"/>
       <c r="F8" s="1"/>
     </row>
@@ -1496,7 +1499,7 @@
     </row>
     <row r="13" ht="14" spans="3:6">
       <c r="C13" s="12"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" ht="14" spans="3:6">
@@ -1555,13 +1558,13 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="14" spans="2:6">
-      <c r="B25" s="17"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" ht="14" spans="2:6">
-      <c r="B26" s="17"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="F26" s="1"/>
@@ -1573,7 +1576,7 @@
     </row>
     <row r="28" ht="14" spans="3:6">
       <c r="C28" s="12"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="17"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" ht="14" spans="3:6">
@@ -1582,66 +1585,66 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" ht="14" spans="2:6">
-      <c r="B30" s="17"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" ht="14" spans="1:6">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" ht="14" spans="1:6">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" ht="14" spans="1:6">
-      <c r="A33" s="18"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" ht="14" spans="1:6">
-      <c r="A34" s="18"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" ht="14" spans="1:6">
-      <c r="A35" s="18"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" ht="14" spans="2:6">
-      <c r="B36" s="17"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" ht="14" spans="2:6">
-      <c r="B37" s="17"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" ht="14" spans="2:6">
-      <c r="B38" s="17"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" ht="14" spans="2:6">
-      <c r="B39" s="17"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="F39" s="1"/>
@@ -1777,7 +1780,7 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" ht="14" spans="2:6">
-      <c r="B66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="F66" s="1"/>
@@ -1813,7 +1816,7 @@
       <c r="F72" s="1"/>
     </row>
     <row r="73" ht="14.4" spans="3:6">
-      <c r="C73" s="20"/>
+      <c r="C73" s="21"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" ht="14" spans="3:6">
@@ -1862,7 +1865,7 @@
       <c r="F82" s="1"/>
     </row>
     <row r="83" ht="14.4" spans="3:6">
-      <c r="C83" s="20"/>
+      <c r="C83" s="21"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" ht="14" spans="3:6">
@@ -1876,7 +1879,7 @@
       <c r="F85" s="1"/>
     </row>
     <row r="86" ht="14" spans="2:6">
-      <c r="B86" s="19"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="F86" s="1"/>
@@ -1962,7 +1965,7 @@
       <c r="F102" s="1"/>
     </row>
     <row r="103" ht="14.4" spans="3:6">
-      <c r="C103" s="20"/>
+      <c r="C103" s="21"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" ht="14" spans="3:6">
@@ -1971,13 +1974,13 @@
       <c r="F104" s="1"/>
     </row>
     <row r="105" ht="14" spans="2:6">
-      <c r="B105" s="17"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" ht="14" spans="2:6">
-      <c r="B106" s="17"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="F106" s="1"/>
@@ -2123,25 +2126,25 @@
       <c r="F134" s="1"/>
     </row>
     <row r="135" ht="14" spans="2:6">
-      <c r="B135" s="17"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="F135" s="1"/>
     </row>
     <row r="136" ht="14" spans="2:6">
-      <c r="B136" s="17"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="F136" s="1"/>
     </row>
     <row r="137" ht="14" spans="2:6">
-      <c r="B137" s="17"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="15"/>
       <c r="D137" s="15"/>
       <c r="F137" s="1"/>
     </row>
     <row r="138" ht="14" spans="2:6">
-      <c r="B138" s="17"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="F138" s="1"/>
@@ -2162,7 +2165,7 @@
       <c r="F141" s="1"/>
     </row>
     <row r="142" ht="14.4" spans="3:6">
-      <c r="C142" s="20"/>
+      <c r="C142" s="21"/>
       <c r="F142" s="1"/>
     </row>
     <row r="143" ht="14" spans="3:6">
@@ -2176,8 +2179,8 @@
       <c r="F144" s="1"/>
     </row>
     <row r="145" ht="12.4" spans="3:6">
-      <c r="C145" s="21"/>
-      <c r="D145" s="21"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
       <c r="F145" s="1"/>
     </row>
     <row r="146" ht="14" spans="3:6">
@@ -2211,55 +2214,55 @@
       <c r="F151" s="1"/>
     </row>
     <row r="152" ht="14" spans="2:6">
-      <c r="B152" s="17"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
       <c r="F152" s="1"/>
     </row>
     <row r="153" ht="14" spans="2:6">
-      <c r="B153" s="17"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
       <c r="F153" s="1"/>
     </row>
     <row r="154" ht="14" spans="2:6">
-      <c r="B154" s="17"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
       <c r="F154" s="1"/>
     </row>
     <row r="155" ht="14" spans="2:6">
-      <c r="B155" s="17"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
       <c r="F155" s="1"/>
     </row>
     <row r="156" ht="14" spans="2:6">
-      <c r="B156" s="17"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="F156" s="1"/>
     </row>
     <row r="157" ht="14" spans="2:6">
-      <c r="B157" s="17"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
       <c r="F157" s="1"/>
     </row>
     <row r="158" ht="14" spans="2:6">
-      <c r="B158" s="17"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
       <c r="F158" s="1"/>
     </row>
     <row r="159" ht="14" spans="2:6">
-      <c r="B159" s="17"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="F159" s="1"/>
     </row>
     <row r="160" ht="14" spans="2:6">
-      <c r="B160" s="17"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
       <c r="F160" s="1"/>
@@ -2275,8 +2278,8 @@
       <c r="F162" s="1"/>
     </row>
     <row r="163" ht="14" spans="3:6">
-      <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
       <c r="F163" s="1"/>
     </row>
     <row r="164" ht="12.4" spans="6:6">
@@ -2603,8 +2606,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" display="是否需要访问核心指标(@关键指标汇总)"/>
-    <hyperlink ref="C2" r:id="rId2" display="ting.lv@wework.cn" tooltip="mailto:ting.lv@wework.cn"/>
-    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId2" display="peter.zhu@wework.cn" tooltip="mailto:peter.zhu@wework.cn"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/aliyun_user/QuickBI用户分组.xlsx
+++ b/aliyun_user/QuickBI用户分组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15360"/>
+    <workbookView windowHeight="15240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>业务部门</t>
   </si>
@@ -73,7 +73,7 @@
     <t>部门负责人（部门审批人）</t>
   </si>
   <si>
-    <t>peter.zhu@wework.cn</t>
+    <t>angie.chan@wework.hk</t>
   </si>
   <si>
     <t>Y</t>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>san zhang</t>
+  </si>
+  <si>
+    <t>jessica.zhang@wework.cn</t>
   </si>
   <si>
     <t>账号级别</t>
@@ -204,12 +207,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -287,7 +290,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -300,9 +303,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF1F2329"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
@@ -326,14 +347,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,9 +368,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,17 +414,63 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,61 +482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -446,28 +489,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -506,25 +527,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,145 +689,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,20 +733,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,28 +763,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,169 +811,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -982,35 +1003,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1344,7 +1368,7 @@
   <dimension ref="A1:X267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="11.2"/>
@@ -1445,327 +1469,329 @@
     </row>
     <row r="3" ht="14.75" spans="2:6">
       <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="12"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" ht="14.75" spans="2:6">
       <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="14"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" ht="14.75" spans="2:6">
       <c r="B5" s="13"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="14"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" ht="14.75" spans="2:6">
       <c r="B6" s="13"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" ht="14.75" spans="3:6">
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" ht="14.75" spans="3:6">
-      <c r="C8" s="16"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="12"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" ht="14" spans="3:6">
-      <c r="C9" s="12"/>
+    <row r="9" ht="14.75" spans="3:6">
+      <c r="C9" s="15"/>
       <c r="D9" s="12"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" ht="14" spans="3:6">
-      <c r="C10" s="12"/>
+    <row r="10" ht="14.75" spans="3:6">
+      <c r="C10" s="15"/>
       <c r="D10" s="12"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" ht="14" spans="3:6">
-      <c r="C11" s="12"/>
+    <row r="11" ht="14.75" spans="3:6">
+      <c r="C11" s="15"/>
       <c r="D11" s="12"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" ht="14" spans="3:6">
-      <c r="C12" s="12"/>
+    <row r="12" ht="14.75" spans="3:6">
+      <c r="C12" s="15"/>
       <c r="D12" s="12"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" ht="14" spans="3:6">
-      <c r="C13" s="12"/>
-      <c r="D13" s="17"/>
+    <row r="13" ht="14.75" spans="3:6">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" ht="14" spans="3:6">
-      <c r="C14" s="12"/>
+    <row r="14" ht="14.75" spans="3:6">
+      <c r="C14" s="17"/>
       <c r="D14" s="12"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" ht="14" spans="3:6">
-      <c r="C15" s="12"/>
+    <row r="15" ht="14.75" spans="3:6">
+      <c r="C15" s="18"/>
       <c r="D15" s="12"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" ht="14" spans="3:6">
-      <c r="C16" s="12"/>
+    <row r="16" ht="14.75" spans="3:6">
+      <c r="C16" s="19"/>
       <c r="D16" s="12"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" ht="14" spans="3:6">
-      <c r="C17" s="12"/>
+    <row r="17" ht="14.75" spans="3:6">
+      <c r="C17" s="19"/>
       <c r="D17" s="12"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" ht="14" spans="3:6">
-      <c r="C18" s="12"/>
+    <row r="18" ht="14.75" spans="3:6">
+      <c r="C18" s="19"/>
       <c r="D18" s="12"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" ht="14" spans="3:6">
-      <c r="C19" s="12"/>
+    <row r="19" ht="14.75" spans="3:6">
+      <c r="C19" s="19"/>
       <c r="D19" s="12"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" ht="14" spans="3:6">
-      <c r="C20" s="12"/>
+    <row r="20" ht="14.75" spans="3:6">
+      <c r="C20" s="19"/>
       <c r="D20" s="12"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" ht="14" spans="3:6">
-      <c r="C21" s="12"/>
+    <row r="21" ht="14.75" spans="3:6">
+      <c r="C21" s="19"/>
       <c r="D21" s="12"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" ht="14" spans="3:6">
-      <c r="C22" s="12"/>
+    <row r="22" ht="14.75" spans="3:6">
+      <c r="C22" s="19"/>
       <c r="D22" s="12"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" ht="14" spans="3:6">
-      <c r="C23" s="12"/>
+    <row r="23" ht="14.75" spans="3:6">
+      <c r="C23" s="19"/>
       <c r="D23" s="12"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" ht="14" spans="3:6">
-      <c r="C24" s="12"/>
+    <row r="24" ht="14.75" spans="3:6">
+      <c r="C24" s="19"/>
       <c r="D24" s="12"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" ht="14" spans="2:6">
-      <c r="B25" s="18"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+    <row r="25" ht="14.75" spans="2:6">
+      <c r="B25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="14"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" ht="14" spans="2:6">
-      <c r="B26" s="18"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+    <row r="26" ht="14.75" spans="2:6">
+      <c r="B26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="14"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" ht="14" spans="3:6">
-      <c r="C27" s="12"/>
+    <row r="27" ht="14.75" spans="3:6">
+      <c r="C27" s="19"/>
       <c r="D27" s="12"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" ht="14" spans="3:6">
-      <c r="C28" s="12"/>
-      <c r="D28" s="17"/>
+    <row r="28" ht="14.35" spans="3:6">
+      <c r="C28" s="19"/>
+      <c r="D28" s="16"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" ht="14" spans="3:6">
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+    <row r="29" ht="14.75" spans="3:6">
+      <c r="C29" s="21"/>
+      <c r="D29" s="14"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" ht="14" spans="2:6">
-      <c r="B30" s="18"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+    <row r="30" ht="14.75" spans="2:6">
+      <c r="B30" s="20"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="14"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" ht="14" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+    <row r="31" ht="14.75" spans="1:6">
+      <c r="A31" s="22"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="14"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" ht="14" spans="1:6">
-      <c r="A32" s="19"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+    <row r="32" ht="14.75" spans="1:6">
+      <c r="A32" s="22"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="14"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" ht="14" spans="1:6">
-      <c r="A33" s="19"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+    <row r="33" ht="14.75" spans="1:6">
+      <c r="A33" s="22"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="14"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" ht="14" spans="1:6">
-      <c r="A34" s="19"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+    <row r="34" ht="14.75" spans="1:6">
+      <c r="A34" s="22"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="14"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" ht="14" spans="1:6">
-      <c r="A35" s="19"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+    <row r="35" ht="14.75" spans="1:6">
+      <c r="A35" s="22"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="14"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" ht="14" spans="2:6">
-      <c r="B36" s="18"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+    <row r="36" ht="14.75" spans="2:6">
+      <c r="B36" s="20"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="14"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" ht="14" spans="2:6">
-      <c r="B37" s="18"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+    <row r="37" ht="14.75" spans="2:6">
+      <c r="B37" s="20"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="14"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" ht="14" spans="2:6">
-      <c r="B38" s="18"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+    <row r="38" ht="14.75" spans="2:6">
+      <c r="B38" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="14"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" ht="14" spans="2:6">
-      <c r="B39" s="18"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+    <row r="39" ht="14.75" spans="2:6">
+      <c r="B39" s="20"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="14"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" ht="14" spans="3:6">
-      <c r="C40" s="12"/>
+    <row r="40" ht="14.75" spans="3:6">
+      <c r="C40" s="19"/>
       <c r="D40" s="12"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" ht="14" spans="3:6">
-      <c r="C41" s="12"/>
+    <row r="41" ht="14.75" spans="3:6">
+      <c r="C41" s="19"/>
       <c r="D41" s="12"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" ht="14" spans="3:6">
-      <c r="C42" s="12"/>
+    <row r="42" ht="14.75" spans="3:6">
+      <c r="C42" s="19"/>
       <c r="D42" s="12"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" ht="14" spans="3:6">
-      <c r="C43" s="12"/>
+    <row r="43" ht="14.75" spans="3:6">
+      <c r="C43" s="19"/>
       <c r="D43" s="12"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" ht="14" spans="3:6">
-      <c r="C44" s="12"/>
+    <row r="44" ht="14.75" spans="3:6">
+      <c r="C44" s="19"/>
       <c r="D44" s="12"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" ht="14" spans="3:6">
-      <c r="C45" s="12"/>
+    <row r="45" ht="14.75" spans="3:6">
+      <c r="C45" s="19"/>
       <c r="D45" s="12"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" ht="14" spans="3:6">
-      <c r="C46" s="12"/>
+    <row r="46" ht="14.75" spans="3:6">
+      <c r="C46" s="19"/>
       <c r="D46" s="12"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" ht="14" spans="3:6">
-      <c r="C47" s="12"/>
+    <row r="47" ht="14.75" spans="3:6">
+      <c r="C47" s="19"/>
       <c r="D47" s="12"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" ht="14" spans="3:6">
-      <c r="C48" s="12"/>
+    <row r="48" ht="14.75" spans="3:6">
+      <c r="C48" s="19"/>
       <c r="D48" s="12"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" ht="14" spans="3:6">
-      <c r="C49" s="12"/>
+    <row r="49" ht="14.75" spans="3:6">
+      <c r="C49" s="19"/>
       <c r="D49" s="12"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" ht="14" spans="3:6">
-      <c r="C50" s="12"/>
+    <row r="50" ht="14.75" spans="3:6">
+      <c r="C50" s="19"/>
       <c r="D50" s="12"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" ht="14" spans="3:6">
-      <c r="C51" s="12"/>
+    <row r="51" ht="14.75" spans="3:6">
+      <c r="C51" s="19"/>
       <c r="D51" s="12"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" ht="14" spans="3:6">
-      <c r="C52" s="12"/>
+    <row r="52" ht="14.75" spans="3:6">
+      <c r="C52" s="19"/>
       <c r="D52" s="12"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" ht="14" spans="3:6">
-      <c r="C53" s="12"/>
+    <row r="53" ht="14.75" spans="3:6">
+      <c r="C53" s="19"/>
       <c r="D53" s="12"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" ht="14" spans="3:6">
-      <c r="C54" s="12"/>
+    <row r="54" ht="14.75" spans="3:6">
+      <c r="C54" s="19"/>
       <c r="D54" s="12"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" ht="14" spans="3:6">
-      <c r="C55" s="12"/>
+    <row r="55" ht="14.75" spans="3:6">
+      <c r="C55" s="19"/>
       <c r="D55" s="12"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" ht="14" spans="3:6">
-      <c r="C56" s="12"/>
+    <row r="56" ht="14.75" spans="3:6">
+      <c r="C56" s="19"/>
       <c r="D56" s="12"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" ht="14" spans="3:6">
-      <c r="C57" s="12"/>
+    <row r="57" ht="14.75" spans="3:6">
+      <c r="C57" s="19"/>
       <c r="D57" s="12"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" ht="14.45" customHeight="1" spans="3:6">
-      <c r="C58" s="12"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="12"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" ht="14" spans="3:6">
-      <c r="C59" s="12"/>
+    <row r="59" ht="14.75" spans="3:6">
+      <c r="C59" s="19"/>
       <c r="D59" s="12"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" ht="14" spans="3:6">
-      <c r="C60" s="12"/>
+    <row r="60" ht="14.75" spans="3:6">
+      <c r="C60" s="19"/>
       <c r="D60" s="12"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" ht="14" spans="3:6">
-      <c r="C61" s="12"/>
+    <row r="61" ht="14.75" spans="3:6">
+      <c r="C61" s="19"/>
       <c r="D61" s="12"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" ht="14" spans="3:6">
-      <c r="C62" s="12"/>
+    <row r="62" ht="14.75" spans="3:6">
+      <c r="C62" s="19"/>
       <c r="D62" s="12"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" ht="14" spans="3:6">
-      <c r="C63" s="12"/>
+    <row r="63" ht="14.75" spans="3:6">
+      <c r="C63" s="19"/>
       <c r="D63" s="12"/>
       <c r="F63" s="1"/>
     </row>
@@ -1780,7 +1806,7 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" ht="14" spans="2:6">
-      <c r="B66" s="20"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="F66" s="1"/>
@@ -1816,7 +1842,7 @@
       <c r="F72" s="1"/>
     </row>
     <row r="73" ht="14.4" spans="3:6">
-      <c r="C73" s="21"/>
+      <c r="C73" s="24"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" ht="14" spans="3:6">
@@ -1865,7 +1891,7 @@
       <c r="F82" s="1"/>
     </row>
     <row r="83" ht="14.4" spans="3:6">
-      <c r="C83" s="21"/>
+      <c r="C83" s="24"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" ht="14" spans="3:6">
@@ -1879,7 +1905,7 @@
       <c r="F85" s="1"/>
     </row>
     <row r="86" ht="14" spans="2:6">
-      <c r="B86" s="20"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="F86" s="1"/>
@@ -1965,7 +1991,7 @@
       <c r="F102" s="1"/>
     </row>
     <row r="103" ht="14.4" spans="3:6">
-      <c r="C103" s="21"/>
+      <c r="C103" s="24"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" ht="14" spans="3:6">
@@ -1974,15 +2000,15 @@
       <c r="F104" s="1"/>
     </row>
     <row r="105" ht="14" spans="2:6">
-      <c r="B105" s="18"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" ht="14" spans="2:6">
-      <c r="B106" s="18"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" ht="14" spans="3:6">
@@ -2126,27 +2152,27 @@
       <c r="F134" s="1"/>
     </row>
     <row r="135" ht="14" spans="2:6">
-      <c r="B135" s="18"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
       <c r="F135" s="1"/>
     </row>
     <row r="136" ht="14" spans="2:6">
-      <c r="B136" s="18"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
       <c r="F136" s="1"/>
     </row>
     <row r="137" ht="14" spans="2:6">
-      <c r="B137" s="18"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
       <c r="F137" s="1"/>
     </row>
     <row r="138" ht="14" spans="2:6">
-      <c r="B138" s="18"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
       <c r="F138" s="1"/>
     </row>
     <row r="139" ht="14" spans="3:6">
@@ -2165,7 +2191,7 @@
       <c r="F141" s="1"/>
     </row>
     <row r="142" ht="14.4" spans="3:6">
-      <c r="C142" s="21"/>
+      <c r="C142" s="24"/>
       <c r="F142" s="1"/>
     </row>
     <row r="143" ht="14" spans="3:6">
@@ -2179,8 +2205,8 @@
       <c r="F144" s="1"/>
     </row>
     <row r="145" ht="12.4" spans="3:6">
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
       <c r="F145" s="1"/>
     </row>
     <row r="146" ht="14" spans="3:6">
@@ -2214,57 +2240,57 @@
       <c r="F151" s="1"/>
     </row>
     <row r="152" ht="14" spans="2:6">
-      <c r="B152" s="18"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
       <c r="F152" s="1"/>
     </row>
     <row r="153" ht="14" spans="2:6">
-      <c r="B153" s="18"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
       <c r="F153" s="1"/>
     </row>
     <row r="154" ht="14" spans="2:6">
-      <c r="B154" s="18"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
       <c r="F154" s="1"/>
     </row>
     <row r="155" ht="14" spans="2:6">
-      <c r="B155" s="18"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
       <c r="F155" s="1"/>
     </row>
     <row r="156" ht="14" spans="2:6">
-      <c r="B156" s="18"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
       <c r="F156" s="1"/>
     </row>
     <row r="157" ht="14" spans="2:6">
-      <c r="B157" s="18"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
       <c r="F157" s="1"/>
     </row>
     <row r="158" ht="14" spans="2:6">
-      <c r="B158" s="18"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
       <c r="F158" s="1"/>
     </row>
     <row r="159" ht="14" spans="2:6">
-      <c r="B159" s="18"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
       <c r="F159" s="1"/>
     </row>
     <row r="160" ht="14" spans="2:6">
-      <c r="B160" s="18"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
       <c r="F160" s="1"/>
     </row>
     <row r="161" ht="14" spans="3:6">
@@ -2278,8 +2304,8 @@
       <c r="F162" s="1"/>
     </row>
     <row r="163" ht="14" spans="3:6">
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
       <c r="F163" s="1"/>
     </row>
     <row r="164" ht="12.4" spans="6:6">
@@ -2596,17 +2622,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B$1:B$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:D1 D2:D63 C64:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="5" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="6" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1 D2:D8 C9:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" display="是否需要访问核心指标(@关键指标汇总)"/>
-    <hyperlink ref="C2" r:id="rId2" display="peter.zhu@wework.cn" tooltip="mailto:peter.zhu@wework.cn"/>
+    <hyperlink ref="C2" r:id="rId2" display="angie.chan@wework.hk" tooltip="mailto:angie.chan@wework.hk"/>
+    <hyperlink ref="C3" r:id="rId3" display="jessica.zhang@wework.cn"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2636,7 +2663,7 @@
   <sheetData>
     <row r="1" ht="97" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2657,19 +2684,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>8</v>
@@ -2677,22 +2704,22 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -2700,58 +2727,58 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2780,97 +2807,97 @@
   <sheetData>
     <row r="1" ht="12.4" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
